--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3388592.830558859</v>
+        <v>3386189.862991577</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10098310.45603907</v>
+        <v>10098310.45603906</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673443</v>
       </c>
     </row>
     <row r="9">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,38 +1227,38 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="W9" t="n">
-        <v>6.05642108929943</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="X9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,76 +1288,76 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C10" t="n">
+      <c r="S10" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>6.056421089299432</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
@@ -1382,10 +1382,10 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>272.27716531186</v>
+        <v>70.29337142557982</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1546,7 +1546,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1607,16 +1607,16 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>51.19963245605172</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1670,7 +1670,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>24.64453754313212</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247755</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>322.9395291780629</v>
+        <v>322.9395291780631</v>
       </c>
       <c r="C17" t="n">
-        <v>305.4785792855898</v>
+        <v>305.4785792855901</v>
       </c>
       <c r="D17" t="n">
-        <v>294.8887291352652</v>
+        <v>294.8887291352655</v>
       </c>
       <c r="E17" t="n">
-        <v>322.1360575868441</v>
+        <v>322.1360575868443</v>
       </c>
       <c r="F17" t="n">
-        <v>347.0817332562937</v>
+        <v>347.081733256294</v>
       </c>
       <c r="G17" t="n">
-        <v>351.1274131680357</v>
+        <v>301.8385443684213</v>
       </c>
       <c r="H17" t="n">
-        <v>234.8134519019027</v>
+        <v>234.813451901903</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1045805031463942</v>
+        <v>49.39344930275837</v>
       </c>
       <c r="T17" t="n">
-        <v>144.1236576542024</v>
+        <v>144.1236576542027</v>
       </c>
       <c r="U17" t="n">
-        <v>191.2008594734843</v>
+        <v>191.2008594734845</v>
       </c>
       <c r="V17" t="n">
-        <v>267.9579459847172</v>
+        <v>267.9579459847175</v>
       </c>
       <c r="W17" t="n">
-        <v>289.4466562319953</v>
+        <v>289.4466562319956</v>
       </c>
       <c r="X17" t="n">
-        <v>309.9367881930513</v>
+        <v>309.9367881930516</v>
       </c>
       <c r="Y17" t="n">
-        <v>326.4436261706359</v>
+        <v>326.4436261706362</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>120.0376676965196</v>
+        <v>120.0376676965198</v>
       </c>
       <c r="C19" t="n">
-        <v>107.4525086132101</v>
+        <v>107.4525086132104</v>
       </c>
       <c r="D19" t="n">
-        <v>88.82116053279465</v>
+        <v>88.82116053279489</v>
       </c>
       <c r="E19" t="n">
-        <v>86.63965016115147</v>
+        <v>86.63965016115171</v>
       </c>
       <c r="F19" t="n">
-        <v>85.62673553751354</v>
+        <v>85.62673553751378</v>
       </c>
       <c r="G19" t="n">
-        <v>106.2314957736105</v>
+        <v>106.2314957736108</v>
       </c>
       <c r="H19" t="n">
-        <v>84.96070242890308</v>
+        <v>84.96070242890332</v>
       </c>
       <c r="I19" t="n">
-        <v>36.55810792442039</v>
+        <v>36.55810792442063</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>29.13784018462962</v>
+        <v>29.13784018462987</v>
       </c>
       <c r="S19" t="n">
-        <v>129.9747128460242</v>
+        <v>129.9747128460244</v>
       </c>
       <c r="T19" t="n">
-        <v>159.7546367907515</v>
+        <v>159.7546367907517</v>
       </c>
       <c r="U19" t="n">
-        <v>226.4175257201951</v>
+        <v>226.4175257201954</v>
       </c>
       <c r="V19" t="n">
-        <v>192.3433308384103</v>
+        <v>192.3433308384105</v>
       </c>
       <c r="W19" t="n">
-        <v>226.7286858511733</v>
+        <v>226.7286858511735</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9153429036194</v>
+        <v>165.9153429036197</v>
       </c>
       <c r="Y19" t="n">
-        <v>158.7903408666771</v>
+        <v>158.7903408666773</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>322.9395291780629</v>
+        <v>322.9395291780631</v>
       </c>
       <c r="C20" t="n">
-        <v>305.4785792855898</v>
+        <v>305.4785792855901</v>
       </c>
       <c r="D20" t="n">
-        <v>294.8887291352652</v>
+        <v>294.8887291352655</v>
       </c>
       <c r="E20" t="n">
-        <v>322.1360575868441</v>
+        <v>322.1360575868443</v>
       </c>
       <c r="F20" t="n">
-        <v>347.0817332562937</v>
+        <v>347.081733256294</v>
       </c>
       <c r="G20" t="n">
-        <v>301.8385443684236</v>
+        <v>351.127413168036</v>
       </c>
       <c r="H20" t="n">
-        <v>234.8134519019027</v>
+        <v>185.5245831022886</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>49.39344930275814</v>
+        <v>49.39344930275837</v>
       </c>
       <c r="T20" t="n">
-        <v>144.1236576542024</v>
+        <v>144.1236576542027</v>
       </c>
       <c r="U20" t="n">
-        <v>191.2008594734843</v>
+        <v>191.2008594734845</v>
       </c>
       <c r="V20" t="n">
-        <v>267.9579459847172</v>
+        <v>267.9579459847175</v>
       </c>
       <c r="W20" t="n">
-        <v>289.4466562319953</v>
+        <v>289.4466562319956</v>
       </c>
       <c r="X20" t="n">
-        <v>309.9367881930513</v>
+        <v>309.9367881930516</v>
       </c>
       <c r="Y20" t="n">
-        <v>326.4436261706359</v>
+        <v>326.4436261706362</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>120.0376676965196</v>
+        <v>120.0376676965198</v>
       </c>
       <c r="C22" t="n">
-        <v>107.4525086132101</v>
+        <v>107.4525086132104</v>
       </c>
       <c r="D22" t="n">
-        <v>88.82116053279465</v>
+        <v>88.82116053279489</v>
       </c>
       <c r="E22" t="n">
-        <v>86.63965016115147</v>
+        <v>86.63965016115171</v>
       </c>
       <c r="F22" t="n">
-        <v>85.62673553751354</v>
+        <v>85.62673553751378</v>
       </c>
       <c r="G22" t="n">
-        <v>106.2314957736105</v>
+        <v>106.2314957736108</v>
       </c>
       <c r="H22" t="n">
-        <v>84.96070242890308</v>
+        <v>84.96070242890332</v>
       </c>
       <c r="I22" t="n">
-        <v>36.55810792442039</v>
+        <v>36.55810792442063</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>29.13784018462962</v>
+        <v>29.13784018462987</v>
       </c>
       <c r="S22" t="n">
-        <v>129.9747128460242</v>
+        <v>129.9747128460244</v>
       </c>
       <c r="T22" t="n">
-        <v>159.7546367907515</v>
+        <v>159.7546367907517</v>
       </c>
       <c r="U22" t="n">
-        <v>226.4175257201951</v>
+        <v>226.4175257201954</v>
       </c>
       <c r="V22" t="n">
-        <v>192.3433308384103</v>
+        <v>192.3433308384105</v>
       </c>
       <c r="W22" t="n">
-        <v>226.7286858511733</v>
+        <v>226.7286858511735</v>
       </c>
       <c r="X22" t="n">
-        <v>165.9153429036194</v>
+        <v>165.9153429036197</v>
       </c>
       <c r="Y22" t="n">
-        <v>158.7903408666771</v>
+        <v>158.7903408666773</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>322.9395291780629</v>
+        <v>322.9395291780631</v>
       </c>
       <c r="C23" t="n">
-        <v>305.4785792855898</v>
+        <v>305.4785792855901</v>
       </c>
       <c r="D23" t="n">
-        <v>294.8887291352652</v>
+        <v>294.8887291352655</v>
       </c>
       <c r="E23" t="n">
-        <v>322.1360575868441</v>
+        <v>322.1360575868443</v>
       </c>
       <c r="F23" t="n">
-        <v>347.0817332562937</v>
+        <v>347.081733256294</v>
       </c>
       <c r="G23" t="n">
-        <v>351.1274131680357</v>
+        <v>351.127413168036</v>
       </c>
       <c r="H23" t="n">
-        <v>234.8134519019027</v>
+        <v>234.813451901903</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>49.39344930275813</v>
+        <v>49.39344930275838</v>
       </c>
       <c r="T23" t="n">
-        <v>144.1236576542024</v>
+        <v>144.1236576542027</v>
       </c>
       <c r="U23" t="n">
-        <v>191.2008594734843</v>
+        <v>191.2008594734845</v>
       </c>
       <c r="V23" t="n">
-        <v>267.9579459847172</v>
+        <v>267.9579459847175</v>
       </c>
       <c r="W23" t="n">
-        <v>289.4466562319953</v>
+        <v>289.4466562319956</v>
       </c>
       <c r="X23" t="n">
-        <v>309.9367881930513</v>
+        <v>309.9367881930516</v>
       </c>
       <c r="Y23" t="n">
-        <v>326.4436261706359</v>
+        <v>326.4436261706362</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.0376676965196</v>
+        <v>120.0376676965198</v>
       </c>
       <c r="C25" t="n">
-        <v>107.4525086132101</v>
+        <v>107.4525086132104</v>
       </c>
       <c r="D25" t="n">
-        <v>88.82116053279465</v>
+        <v>88.82116053279489</v>
       </c>
       <c r="E25" t="n">
-        <v>86.63965016115147</v>
+        <v>86.63965016115171</v>
       </c>
       <c r="F25" t="n">
-        <v>85.62673553751354</v>
+        <v>85.62673553751378</v>
       </c>
       <c r="G25" t="n">
-        <v>106.2314957736105</v>
+        <v>106.2314957736108</v>
       </c>
       <c r="H25" t="n">
-        <v>84.96070242890308</v>
+        <v>84.96070242890332</v>
       </c>
       <c r="I25" t="n">
-        <v>36.55810792442039</v>
+        <v>36.55810792442063</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>29.13784018462962</v>
+        <v>29.13784018462987</v>
       </c>
       <c r="S25" t="n">
-        <v>129.9747128460242</v>
+        <v>129.9747128460244</v>
       </c>
       <c r="T25" t="n">
-        <v>159.7546367907515</v>
+        <v>159.7546367907517</v>
       </c>
       <c r="U25" t="n">
-        <v>226.4175257201951</v>
+        <v>226.4175257201954</v>
       </c>
       <c r="V25" t="n">
-        <v>192.3433308384103</v>
+        <v>192.3433308384105</v>
       </c>
       <c r="W25" t="n">
-        <v>226.7286858511733</v>
+        <v>226.7286858511735</v>
       </c>
       <c r="X25" t="n">
-        <v>165.9153429036194</v>
+        <v>165.9153429036197</v>
       </c>
       <c r="Y25" t="n">
-        <v>158.7903408666771</v>
+        <v>158.7903408666773</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>346.8945000967141</v>
+        <v>346.8945000967144</v>
       </c>
       <c r="C26" t="n">
-        <v>329.4335502042411</v>
+        <v>329.4335502042413</v>
       </c>
       <c r="D26" t="n">
-        <v>318.8437000539165</v>
+        <v>318.8437000539168</v>
       </c>
       <c r="E26" t="n">
-        <v>346.0910285054953</v>
+        <v>346.0910285054956</v>
       </c>
       <c r="F26" t="n">
-        <v>371.036704174945</v>
+        <v>371.0367041749453</v>
       </c>
       <c r="G26" t="n">
-        <v>375.082384086687</v>
+        <v>375.0823840866873</v>
       </c>
       <c r="H26" t="n">
-        <v>258.768422820554</v>
+        <v>258.7684228205543</v>
       </c>
       <c r="I26" t="n">
-        <v>5.737588206159515</v>
+        <v>5.737588206159757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>73.3484202214094</v>
+        <v>73.34842022140964</v>
       </c>
       <c r="T26" t="n">
-        <v>168.0786285728537</v>
+        <v>168.078628572854</v>
       </c>
       <c r="U26" t="n">
-        <v>215.1558303921356</v>
+        <v>215.1558303921358</v>
       </c>
       <c r="V26" t="n">
-        <v>291.9129169033685</v>
+        <v>291.9129169033687</v>
       </c>
       <c r="W26" t="n">
-        <v>313.4016271506466</v>
+        <v>313.4016271506468</v>
       </c>
       <c r="X26" t="n">
-        <v>333.8917591117026</v>
+        <v>333.8917591117029</v>
       </c>
       <c r="Y26" t="n">
-        <v>350.3985970892871</v>
+        <v>350.3985970892874</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247726</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>143.9926386151708</v>
+        <v>143.9926386151711</v>
       </c>
       <c r="C28" t="n">
-        <v>131.4074795318614</v>
+        <v>131.4074795318616</v>
       </c>
       <c r="D28" t="n">
-        <v>112.7761314514459</v>
+        <v>86.39200881968046</v>
       </c>
       <c r="E28" t="n">
-        <v>110.5946210798027</v>
+        <v>110.594621079803</v>
       </c>
       <c r="F28" t="n">
-        <v>109.5817064561648</v>
+        <v>109.5817064561651</v>
       </c>
       <c r="G28" t="n">
-        <v>130.1864666922618</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>108.9156733475543</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>60.51307884307165</v>
+        <v>60.5130788430719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>53.09281110328089</v>
+        <v>53.09281110328114</v>
       </c>
       <c r="S28" t="n">
-        <v>72.15302880250249</v>
+        <v>153.9296837646757</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>183.709607709403</v>
       </c>
       <c r="U28" t="n">
-        <v>250.3724966388464</v>
+        <v>250.3724966388467</v>
       </c>
       <c r="V28" t="n">
-        <v>216.2983017570616</v>
+        <v>216.2983017570618</v>
       </c>
       <c r="W28" t="n">
-        <v>250.6836567698246</v>
+        <v>250.6836567698248</v>
       </c>
       <c r="X28" t="n">
-        <v>189.8703138222707</v>
+        <v>189.870313822271</v>
       </c>
       <c r="Y28" t="n">
-        <v>182.7453117853283</v>
+        <v>182.7453117853286</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>346.8945000967141</v>
+        <v>346.8945000967144</v>
       </c>
       <c r="C29" t="n">
-        <v>329.4335502042411</v>
+        <v>329.4335502042413</v>
       </c>
       <c r="D29" t="n">
-        <v>318.8437000539165</v>
+        <v>318.8437000539168</v>
       </c>
       <c r="E29" t="n">
-        <v>346.0910285054953</v>
+        <v>346.0910285054956</v>
       </c>
       <c r="F29" t="n">
-        <v>371.036704174945</v>
+        <v>371.0367041749453</v>
       </c>
       <c r="G29" t="n">
-        <v>375.082384086687</v>
+        <v>375.0823840866873</v>
       </c>
       <c r="H29" t="n">
-        <v>258.768422820554</v>
+        <v>258.7684228205543</v>
       </c>
       <c r="I29" t="n">
-        <v>5.737588206159515</v>
+        <v>5.737588206159757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.3484202214094</v>
+        <v>73.34842022140964</v>
       </c>
       <c r="T29" t="n">
-        <v>168.0786285728537</v>
+        <v>168.078628572854</v>
       </c>
       <c r="U29" t="n">
-        <v>215.1558303921356</v>
+        <v>215.1558303921358</v>
       </c>
       <c r="V29" t="n">
-        <v>291.9129169033685</v>
+        <v>291.9129169033687</v>
       </c>
       <c r="W29" t="n">
-        <v>313.4016271506466</v>
+        <v>313.4016271506468</v>
       </c>
       <c r="X29" t="n">
-        <v>333.8917591117026</v>
+        <v>333.8917591117029</v>
       </c>
       <c r="Y29" t="n">
-        <v>350.3985970892871</v>
+        <v>350.3985970892874</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>143.9926386151708</v>
+        <v>143.9926386151711</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>131.4074795318616</v>
       </c>
       <c r="D31" t="n">
-        <v>112.7761314514459</v>
+        <v>112.7761314514462</v>
       </c>
       <c r="E31" t="n">
-        <v>110.5946210798027</v>
+        <v>15.2031437074577</v>
       </c>
       <c r="F31" t="n">
-        <v>109.5817064561648</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>130.186466692262</v>
       </c>
       <c r="H31" t="n">
-        <v>105.0233569001013</v>
+        <v>108.9156733475546</v>
       </c>
       <c r="I31" t="n">
-        <v>60.51307884307165</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>53.09281110328089</v>
+        <v>53.09281110328114</v>
       </c>
       <c r="S31" t="n">
-        <v>153.9296837646754</v>
+        <v>153.9296837646757</v>
       </c>
       <c r="T31" t="n">
-        <v>183.7096077094027</v>
+        <v>183.709607709403</v>
       </c>
       <c r="U31" t="n">
-        <v>250.3724966388464</v>
+        <v>250.3724966388467</v>
       </c>
       <c r="V31" t="n">
-        <v>216.2983017570616</v>
+        <v>216.2983017570618</v>
       </c>
       <c r="W31" t="n">
-        <v>250.6836567698246</v>
+        <v>250.6836567698248</v>
       </c>
       <c r="X31" t="n">
-        <v>189.8703138222707</v>
+        <v>189.870313822271</v>
       </c>
       <c r="Y31" t="n">
-        <v>182.7453117853283</v>
+        <v>182.7453117853286</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>345.1155295424185</v>
+        <v>345.1155295424188</v>
       </c>
       <c r="C32" t="n">
-        <v>327.6545796499455</v>
+        <v>327.6545796499457</v>
       </c>
       <c r="D32" t="n">
-        <v>317.0647294996209</v>
+        <v>317.0647294996211</v>
       </c>
       <c r="E32" t="n">
-        <v>344.3120579511997</v>
+        <v>344.3120579512</v>
       </c>
       <c r="F32" t="n">
-        <v>369.2577336206494</v>
+        <v>369.2577336206496</v>
       </c>
       <c r="G32" t="n">
-        <v>373.3034135323914</v>
+        <v>373.3034135323916</v>
       </c>
       <c r="H32" t="n">
-        <v>256.9894522662584</v>
+        <v>256.9894522662586</v>
       </c>
       <c r="I32" t="n">
-        <v>3.958617651863925</v>
+        <v>3.958617651864138</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>71.56944966711382</v>
+        <v>71.56944966711401</v>
       </c>
       <c r="T32" t="n">
-        <v>166.2996580185581</v>
+        <v>166.2996580185583</v>
       </c>
       <c r="U32" t="n">
-        <v>213.37685983784</v>
+        <v>213.3768598378402</v>
       </c>
       <c r="V32" t="n">
-        <v>290.1339463490729</v>
+        <v>290.1339463490731</v>
       </c>
       <c r="W32" t="n">
-        <v>311.622656596351</v>
+        <v>311.6226565963512</v>
       </c>
       <c r="X32" t="n">
-        <v>332.112788557407</v>
+        <v>332.1127885574072</v>
       </c>
       <c r="Y32" t="n">
-        <v>348.6196265349915</v>
+        <v>348.6196265349918</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.2136680608753</v>
+        <v>142.2136680608755</v>
       </c>
       <c r="C34" t="n">
-        <v>129.6285089775658</v>
+        <v>129.628508977566</v>
       </c>
       <c r="D34" t="n">
-        <v>110.9971608971503</v>
+        <v>110.9971608971505</v>
       </c>
       <c r="E34" t="n">
-        <v>108.8156505255072</v>
+        <v>108.8156505255074</v>
       </c>
       <c r="F34" t="n">
-        <v>107.8027359018692</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>128.4074961379662</v>
+        <v>13.1360505591046</v>
       </c>
       <c r="H34" t="n">
-        <v>107.1367027932588</v>
+        <v>107.136702793259</v>
       </c>
       <c r="I34" t="n">
-        <v>58.73410828877606</v>
+        <v>58.73410828877628</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>51.3138405489853</v>
+        <v>51.31384054898551</v>
       </c>
       <c r="S34" t="n">
-        <v>152.1507132103799</v>
+        <v>152.1507132103801</v>
       </c>
       <c r="T34" t="n">
-        <v>181.9306371551072</v>
+        <v>181.9306371551074</v>
       </c>
       <c r="U34" t="n">
-        <v>248.5935260845509</v>
+        <v>248.5935260845511</v>
       </c>
       <c r="V34" t="n">
-        <v>214.519331202766</v>
+        <v>214.5193312027662</v>
       </c>
       <c r="W34" t="n">
-        <v>25.8305047348032</v>
+        <v>248.9046862155292</v>
       </c>
       <c r="X34" t="n">
-        <v>188.0913432679751</v>
+        <v>188.0913432679753</v>
       </c>
       <c r="Y34" t="n">
-        <v>180.9663412310328</v>
+        <v>180.966341231033</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>312.7385393449468</v>
+        <v>312.7385393449467</v>
       </c>
       <c r="C35" t="n">
-        <v>295.2775894524738</v>
+        <v>295.2775894524737</v>
       </c>
       <c r="D35" t="n">
-        <v>284.6877393021492</v>
+        <v>284.6877393021491</v>
       </c>
       <c r="E35" t="n">
-        <v>311.935067753728</v>
+        <v>311.9350677537279</v>
       </c>
       <c r="F35" t="n">
         <v>336.8807434231776</v>
       </c>
       <c r="G35" t="n">
-        <v>340.9264233349197</v>
+        <v>340.9264233349196</v>
       </c>
       <c r="H35" t="n">
-        <v>224.6124620687867</v>
+        <v>224.6124620687866</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.19245946964205</v>
+        <v>39.19245946964199</v>
       </c>
       <c r="T35" t="n">
         <v>133.9226678210863</v>
       </c>
       <c r="U35" t="n">
-        <v>180.9998696403682</v>
+        <v>180.9998696403681</v>
       </c>
       <c r="V35" t="n">
         <v>257.7569561516011</v>
@@ -3332,7 +3332,7 @@
         <v>299.7357983599352</v>
       </c>
       <c r="Y35" t="n">
-        <v>316.2426363375198</v>
+        <v>316.2426363375197</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>109.8366778634035</v>
       </c>
       <c r="C37" t="n">
-        <v>97.25151878009405</v>
+        <v>97.25151878009399</v>
       </c>
       <c r="D37" t="n">
-        <v>78.62017069967857</v>
+        <v>78.62017069967851</v>
       </c>
       <c r="E37" t="n">
-        <v>76.43866032803538</v>
+        <v>76.43866032803533</v>
       </c>
       <c r="F37" t="n">
-        <v>75.42574570439746</v>
+        <v>75.4257457043974</v>
       </c>
       <c r="G37" t="n">
-        <v>96.03050594049444</v>
+        <v>96.03050594049438</v>
       </c>
       <c r="H37" t="n">
-        <v>74.75971259578699</v>
+        <v>74.75971259578694</v>
       </c>
       <c r="I37" t="n">
-        <v>26.35711809130431</v>
+        <v>26.35711809130425</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.93685035151354</v>
+        <v>18.93685035151348</v>
       </c>
       <c r="S37" t="n">
-        <v>119.773723012908</v>
+        <v>119.7737230129081</v>
       </c>
       <c r="T37" t="n">
         <v>149.5536469576354</v>
       </c>
       <c r="U37" t="n">
-        <v>216.2165358870791</v>
+        <v>216.216535887079</v>
       </c>
       <c r="V37" t="n">
         <v>182.1423410052942</v>
@@ -3487,10 +3487,10 @@
         <v>216.5276960180572</v>
       </c>
       <c r="X37" t="n">
-        <v>155.7143530705034</v>
+        <v>155.7143530705033</v>
       </c>
       <c r="Y37" t="n">
-        <v>148.589351033561</v>
+        <v>148.5893510335609</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.192459469642</v>
+        <v>39.19245946964196</v>
       </c>
       <c r="T38" t="n">
         <v>133.9226678210863</v>
       </c>
       <c r="U38" t="n">
-        <v>180.9998696403682</v>
+        <v>180.9998696403681</v>
       </c>
       <c r="V38" t="n">
         <v>257.7569561516011</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3661,25 +3661,25 @@
         <v>109.8366778634035</v>
       </c>
       <c r="C40" t="n">
-        <v>97.251518780094</v>
+        <v>97.25151878009399</v>
       </c>
       <c r="D40" t="n">
-        <v>78.62017069967852</v>
+        <v>78.62017069967851</v>
       </c>
       <c r="E40" t="n">
-        <v>76.43866032803534</v>
+        <v>76.43866032803533</v>
       </c>
       <c r="F40" t="n">
-        <v>75.42574570439741</v>
+        <v>75.4257457043974</v>
       </c>
       <c r="G40" t="n">
-        <v>96.03050594049439</v>
+        <v>96.03050594049438</v>
       </c>
       <c r="H40" t="n">
-        <v>74.75971259578695</v>
+        <v>74.75971259578694</v>
       </c>
       <c r="I40" t="n">
-        <v>26.35711809130426</v>
+        <v>26.35711809130424</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.9368503515135</v>
+        <v>18.93685035151347</v>
       </c>
       <c r="S40" t="n">
         <v>119.7737230129081</v>
@@ -3727,7 +3727,7 @@
         <v>155.7143530705033</v>
       </c>
       <c r="Y40" t="n">
-        <v>148.5893510335609</v>
+        <v>148.5893510335621</v>
       </c>
     </row>
     <row r="41">
@@ -3743,19 +3743,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>320.7748603895939</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>213.5060897741286</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124537</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128494</v>
@@ -3980,10 +3980,10 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>180.3615956913143</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>359.9009091231189</v>
@@ -3992,7 +3992,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>241.6510731180172</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
         <v>302.2658320988205</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
         <v>172.5738126575766</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
         <v>7.357368943631237</v>
       </c>
       <c r="M8" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N8" t="n">
-        <v>13.8896123982571</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O8" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
         <v>0.5500836593369149</v>
@@ -4890,43 +4890,43 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N9" t="n">
-        <v>7.082327113962777</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O9" t="n">
-        <v>13.8896123982571</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P9" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
         <v>0.5500836593369149</v>
@@ -4969,10 +4969,10 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N10" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
@@ -4984,28 +4984,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W10" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1448.753843559317</v>
+        <v>1652.777877787885</v>
       </c>
       <c r="C11" t="n">
-        <v>1448.753843559317</v>
+        <v>1331.264993795546</v>
       </c>
       <c r="D11" t="n">
-        <v>1137.93777790064</v>
+        <v>1020.448928136869</v>
       </c>
       <c r="E11" t="n">
-        <v>799.5991582504686</v>
+        <v>682.1103084866982</v>
       </c>
       <c r="F11" t="n">
-        <v>436.0628864089343</v>
+        <v>318.5740366451639</v>
       </c>
       <c r="G11" t="n">
-        <v>68.44006920200435</v>
+        <v>318.5740366451639</v>
       </c>
       <c r="H11" t="n">
-        <v>68.44006920200435</v>
+        <v>68.44006920200441</v>
       </c>
       <c r="I11" t="n">
-        <v>68.44006920200435</v>
+        <v>68.44006920200441</v>
       </c>
       <c r="J11" t="n">
-        <v>351.7888858822553</v>
+        <v>351.7888858822581</v>
       </c>
       <c r="K11" t="n">
-        <v>685.6082595721018</v>
+        <v>685.6082595721045</v>
       </c>
       <c r="L11" t="n">
-        <v>1136.642472820511</v>
+        <v>1136.642472820513</v>
       </c>
       <c r="M11" t="n">
-        <v>1670.174377492435</v>
+        <v>1670.174377492438</v>
       </c>
       <c r="N11" t="n">
-        <v>2216.953194551218</v>
+        <v>2216.95319455122</v>
       </c>
       <c r="O11" t="n">
-        <v>2719.925665430555</v>
+        <v>2719.925665430557</v>
       </c>
       <c r="P11" t="n">
-        <v>3114.700031787733</v>
+        <v>3114.700031787735</v>
       </c>
       <c r="Q11" t="n">
-        <v>3362.986393543415</v>
+        <v>3362.986393543418</v>
       </c>
       <c r="R11" t="n">
-        <v>3422.003460100218</v>
+        <v>3422.00346010022</v>
       </c>
       <c r="S11" t="n">
-        <v>3359.162424575386</v>
+        <v>3359.162424575389</v>
       </c>
       <c r="T11" t="n">
-        <v>3200.634309907681</v>
+        <v>3200.634309907684</v>
       </c>
       <c r="U11" t="n">
-        <v>2994.553466129591</v>
+        <v>2994.553466129594</v>
       </c>
       <c r="V11" t="n">
-        <v>2710.940211734094</v>
+        <v>2710.940211734096</v>
       </c>
       <c r="W11" t="n">
-        <v>2405.621189412053</v>
+        <v>2405.621189412056</v>
       </c>
       <c r="X11" t="n">
-        <v>2130.593749703104</v>
+        <v>2334.617783931672</v>
       </c>
       <c r="Y11" t="n">
-        <v>1787.904050675365</v>
+        <v>1991.928084903933</v>
       </c>
     </row>
     <row r="12">
@@ -5103,40 +5103,40 @@
         <v>620.0843683085513</v>
       </c>
       <c r="E12" t="n">
-        <v>460.8469133030958</v>
+        <v>460.8469133030959</v>
       </c>
       <c r="F12" t="n">
-        <v>314.3123553299807</v>
+        <v>314.3123553299808</v>
       </c>
       <c r="G12" t="n">
         <v>177.9492551625989</v>
       </c>
       <c r="H12" t="n">
-        <v>87.44736080046638</v>
+        <v>87.44736080046644</v>
       </c>
       <c r="I12" t="n">
-        <v>68.44006920200435</v>
+        <v>68.44006920200441</v>
       </c>
       <c r="J12" t="n">
         <v>162.1173386926217</v>
       </c>
       <c r="K12" t="n">
-        <v>400.3815376729688</v>
+        <v>400.3815376729689</v>
       </c>
       <c r="L12" t="n">
-        <v>767.0796979856342</v>
+        <v>767.0796979856343</v>
       </c>
       <c r="M12" t="n">
         <v>1214.35602320795</v>
       </c>
       <c r="N12" t="n">
-        <v>1687.879066762405</v>
+        <v>1687.879066762404</v>
       </c>
       <c r="O12" t="n">
-        <v>2098.84034618046</v>
+        <v>2098.840346180459</v>
       </c>
       <c r="P12" t="n">
-        <v>2409.339937656563</v>
+        <v>2409.339937656562</v>
       </c>
       <c r="Q12" t="n">
         <v>2566.981495303162</v>
@@ -5173,58 +5173,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>761.3942025751156</v>
+        <v>761.3942025751153</v>
       </c>
       <c r="C13" t="n">
-        <v>639.907652595282</v>
+        <v>639.9076525952817</v>
       </c>
       <c r="D13" t="n">
-        <v>537.2406461310194</v>
+        <v>537.2406461310193</v>
       </c>
       <c r="E13" t="n">
-        <v>436.7771854966995</v>
+        <v>436.7771854966994</v>
       </c>
       <c r="F13" t="n">
-        <v>337.3368709468625</v>
+        <v>337.3368709468623</v>
       </c>
       <c r="G13" t="n">
-        <v>217.0836672696547</v>
+        <v>217.0836672696546</v>
       </c>
       <c r="H13" t="n">
         <v>118.3161134355857</v>
       </c>
       <c r="I13" t="n">
-        <v>68.44006920200435</v>
+        <v>68.44006920200441</v>
       </c>
       <c r="J13" t="n">
-        <v>160.0680869013468</v>
+        <v>160.0680869013466</v>
       </c>
       <c r="K13" t="n">
-        <v>410.5606551026298</v>
+        <v>410.5606551026295</v>
       </c>
       <c r="L13" t="n">
-        <v>773.6258388035326</v>
+        <v>773.6258388035324</v>
       </c>
       <c r="M13" t="n">
         <v>1164.288269655488</v>
       </c>
       <c r="N13" t="n">
-        <v>1552.20203161376</v>
+        <v>1552.202031613759</v>
       </c>
       <c r="O13" t="n">
-        <v>1898.03701578658</v>
+        <v>1898.037015786579</v>
       </c>
       <c r="P13" t="n">
-        <v>2177.149901472646</v>
+        <v>2177.149901472645</v>
       </c>
       <c r="Q13" t="n">
-        <v>2301.265582877567</v>
+        <v>2301.265582877566</v>
       </c>
       <c r="R13" t="n">
         <v>2258.884758583168</v>
       </c>
       <c r="S13" t="n">
-        <v>2114.648507358068</v>
+        <v>2114.648507358067</v>
       </c>
       <c r="T13" t="n">
         <v>1940.331524875667</v>
@@ -5236,13 +5236,13 @@
         <v>1491.44343569157</v>
       </c>
       <c r="W13" t="n">
-        <v>1249.475898602683</v>
+        <v>1249.475898602682</v>
       </c>
       <c r="X13" t="n">
-        <v>1068.935980652739</v>
+        <v>1068.935980652738</v>
       </c>
       <c r="Y13" t="n">
-        <v>895.5930344572821</v>
+        <v>895.5930344572816</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1698.887811002476</v>
+        <v>1397.765157955262</v>
       </c>
       <c r="C14" t="n">
-        <v>1698.887811002476</v>
+        <v>1076.252273962923</v>
       </c>
       <c r="D14" t="n">
-        <v>1388.071745343799</v>
+        <v>1024.535473502265</v>
       </c>
       <c r="E14" t="n">
-        <v>1049.733125693628</v>
+        <v>686.1968538520943</v>
       </c>
       <c r="F14" t="n">
-        <v>686.196853852094</v>
+        <v>686.1968538520943</v>
       </c>
       <c r="G14" t="n">
-        <v>318.5740366451639</v>
+        <v>318.574036645164</v>
       </c>
       <c r="H14" t="n">
-        <v>68.44006920200435</v>
+        <v>68.44006920200441</v>
       </c>
       <c r="I14" t="n">
-        <v>68.44006920200435</v>
+        <v>68.44006920200441</v>
       </c>
       <c r="J14" t="n">
-        <v>351.7888858822553</v>
+        <v>257.3192001610299</v>
       </c>
       <c r="K14" t="n">
-        <v>685.6082595721018</v>
+        <v>591.1385738508764</v>
       </c>
       <c r="L14" t="n">
-        <v>1136.642472820511</v>
+        <v>1042.172787099285</v>
       </c>
       <c r="M14" t="n">
-        <v>1670.174377492435</v>
+        <v>1575.70469177121</v>
       </c>
       <c r="N14" t="n">
-        <v>2216.953194551218</v>
+        <v>2216.95319455122</v>
       </c>
       <c r="O14" t="n">
-        <v>2719.925665430555</v>
+        <v>2719.925665430557</v>
       </c>
       <c r="P14" t="n">
-        <v>3114.700031787733</v>
+        <v>3114.700031787735</v>
       </c>
       <c r="Q14" t="n">
-        <v>3362.986393543415</v>
+        <v>3362.986393543418</v>
       </c>
       <c r="R14" t="n">
-        <v>3422.003460100218</v>
+        <v>3422.00346010022</v>
       </c>
       <c r="S14" t="n">
-        <v>3359.162424575386</v>
+        <v>3359.162424575389</v>
       </c>
       <c r="T14" t="n">
-        <v>3200.634309907681</v>
+        <v>3200.634309907684</v>
       </c>
       <c r="U14" t="n">
-        <v>2994.553466129591</v>
+        <v>2994.553466129593</v>
       </c>
       <c r="V14" t="n">
-        <v>2710.940211734094</v>
+        <v>2710.940211734096</v>
       </c>
       <c r="W14" t="n">
-        <v>2405.621189412053</v>
+        <v>2405.621189412055</v>
       </c>
       <c r="X14" t="n">
-        <v>2380.727717146263</v>
+        <v>2079.605064099049</v>
       </c>
       <c r="Y14" t="n">
-        <v>2038.038018118525</v>
+        <v>1736.91536507131</v>
       </c>
     </row>
     <row r="15">
@@ -5331,58 +5331,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.4718072509296</v>
+        <v>943.4718072509297</v>
       </c>
       <c r="C15" t="n">
-        <v>769.0187779698026</v>
+        <v>769.0187779698027</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0843683085513</v>
+        <v>620.0843683085515</v>
       </c>
       <c r="E15" t="n">
-        <v>460.8469133030958</v>
+        <v>460.846913303096</v>
       </c>
       <c r="F15" t="n">
-        <v>314.3123553299807</v>
+        <v>314.312355329981</v>
       </c>
       <c r="G15" t="n">
-        <v>177.9492551625989</v>
+        <v>177.9492551625991</v>
       </c>
       <c r="H15" t="n">
-        <v>87.44736080046638</v>
+        <v>87.44736080046658</v>
       </c>
       <c r="I15" t="n">
-        <v>68.44006920200435</v>
+        <v>68.44006920200441</v>
       </c>
       <c r="J15" t="n">
-        <v>162.1173386926214</v>
+        <v>162.1173386926217</v>
       </c>
       <c r="K15" t="n">
-        <v>400.3815376729686</v>
+        <v>400.3815376729689</v>
       </c>
       <c r="L15" t="n">
-        <v>767.079697985634</v>
+        <v>767.0796979856343</v>
       </c>
       <c r="M15" t="n">
         <v>1214.35602320795</v>
       </c>
       <c r="N15" t="n">
-        <v>1687.879066762404</v>
+        <v>1687.879066762405</v>
       </c>
       <c r="O15" t="n">
-        <v>2098.840346180459</v>
+        <v>2098.84034618046</v>
       </c>
       <c r="P15" t="n">
-        <v>2409.339937656562</v>
+        <v>2409.339937656563</v>
       </c>
       <c r="Q15" t="n">
         <v>2566.981495303162</v>
       </c>
       <c r="R15" t="n">
-        <v>2566.837141895677</v>
+        <v>2566.837141895678</v>
       </c>
       <c r="S15" t="n">
-        <v>2437.399255389157</v>
+        <v>2437.399255389158</v>
       </c>
       <c r="T15" t="n">
         <v>2244.756255067013</v>
@@ -5397,7 +5397,7 @@
         <v>1527.298943241484</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.447443035951</v>
+        <v>1319.447443035952</v>
       </c>
       <c r="Y15" t="n">
         <v>1111.687144270998</v>
@@ -5425,22 +5425,22 @@
         <v>337.3368709468624</v>
       </c>
       <c r="G16" t="n">
-        <v>217.0836672696546</v>
+        <v>217.0836672696547</v>
       </c>
       <c r="H16" t="n">
-        <v>118.3161134355857</v>
+        <v>118.3161134355858</v>
       </c>
       <c r="I16" t="n">
-        <v>68.44006920200435</v>
+        <v>68.44006920200441</v>
       </c>
       <c r="J16" t="n">
-        <v>160.0680869013465</v>
+        <v>160.0680869013463</v>
       </c>
       <c r="K16" t="n">
-        <v>410.5606551026295</v>
+        <v>410.5606551026293</v>
       </c>
       <c r="L16" t="n">
-        <v>773.6258388035324</v>
+        <v>773.6258388035321</v>
       </c>
       <c r="M16" t="n">
         <v>1164.288269655488</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1950.699894044235</v>
+        <v>1900.91315788301</v>
       </c>
       <c r="C17" t="n">
-        <v>1642.135672543639</v>
+        <v>1592.348936382414</v>
       </c>
       <c r="D17" t="n">
-        <v>1344.268269376705</v>
+        <v>1294.481533215479</v>
       </c>
       <c r="E17" t="n">
-        <v>1018.878312218277</v>
+        <v>969.0915760570504</v>
       </c>
       <c r="F17" t="n">
-        <v>668.290702868485</v>
+        <v>618.5039667072584</v>
       </c>
       <c r="G17" t="n">
-        <v>313.6165481532975</v>
+        <v>313.6165481532978</v>
       </c>
       <c r="H17" t="n">
-        <v>76.43124320188058</v>
+        <v>76.4312432018806</v>
       </c>
       <c r="I17" t="n">
-        <v>76.43124320188058</v>
+        <v>76.4312432018806</v>
       </c>
       <c r="J17" t="n">
-        <v>265.310374160906</v>
+        <v>432.7160231812591</v>
       </c>
       <c r="K17" t="n">
-        <v>599.1297478507524</v>
+        <v>1085.166959565914</v>
       </c>
       <c r="L17" t="n">
-        <v>1050.163961099161</v>
+        <v>1536.201172814323</v>
       </c>
       <c r="M17" t="n">
-        <v>1583.695865771086</v>
+        <v>2069.733077486248</v>
       </c>
       <c r="N17" t="n">
-        <v>2130.474682829868</v>
+        <v>2616.51189454503</v>
       </c>
       <c r="O17" t="n">
-        <v>2633.447153709205</v>
+        <v>3119.484365424367</v>
       </c>
       <c r="P17" t="n">
-        <v>3346.802241156151</v>
+        <v>3514.258731781545</v>
       </c>
       <c r="Q17" t="n">
-        <v>3762.545093537226</v>
+        <v>3762.545093537227</v>
       </c>
       <c r="R17" t="n">
-        <v>3821.562160094029</v>
+        <v>3821.56216009403</v>
       </c>
       <c r="S17" t="n">
-        <v>3821.456523222164</v>
+        <v>3771.66978706094</v>
       </c>
       <c r="T17" t="n">
-        <v>3675.877071046201</v>
+        <v>3626.090334884978</v>
       </c>
       <c r="U17" t="n">
-        <v>3482.744889759854</v>
+        <v>3432.95815359863</v>
       </c>
       <c r="V17" t="n">
-        <v>3212.080297856099</v>
+        <v>3162.293561694875</v>
       </c>
       <c r="W17" t="n">
-        <v>2919.709938025801</v>
+        <v>2869.923201864576</v>
       </c>
       <c r="X17" t="n">
-        <v>2606.642475204537</v>
+        <v>2556.855739043312</v>
       </c>
       <c r="Y17" t="n">
-        <v>2276.901438668541</v>
+        <v>2227.114702507316</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>951.4629812508056</v>
+        <v>951.4629812508058</v>
       </c>
       <c r="C18" t="n">
-        <v>777.0099519696786</v>
+        <v>777.0099519696788</v>
       </c>
       <c r="D18" t="n">
-        <v>628.0755423084274</v>
+        <v>628.0755423084275</v>
       </c>
       <c r="E18" t="n">
-        <v>468.8380873029719</v>
+        <v>468.838087302972</v>
       </c>
       <c r="F18" t="n">
-        <v>322.3035293298569</v>
+        <v>322.303529329857</v>
       </c>
       <c r="G18" t="n">
-        <v>185.9404291624755</v>
+        <v>185.9404291624751</v>
       </c>
       <c r="H18" t="n">
-        <v>95.43853480034299</v>
+        <v>95.43853480034267</v>
       </c>
       <c r="I18" t="n">
-        <v>76.43124320188058</v>
+        <v>76.4312432018806</v>
       </c>
       <c r="J18" t="n">
         <v>170.1085126924979</v>
@@ -5598,7 +5598,7 @@
         <v>408.3727116728451</v>
       </c>
       <c r="L18" t="n">
-        <v>775.0708719855105</v>
+        <v>775.0708719855104</v>
       </c>
       <c r="M18" t="n">
         <v>1222.347197207826</v>
@@ -5631,7 +5631,7 @@
         <v>1789.527473969562</v>
       </c>
       <c r="W18" t="n">
-        <v>1535.29011724136</v>
+        <v>1535.290117241361</v>
       </c>
       <c r="X18" t="n">
         <v>1327.438617035828</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>678.7447391327936</v>
+        <v>678.7447391327953</v>
       </c>
       <c r="C19" t="n">
-        <v>570.2068516447025</v>
+        <v>570.206851644704</v>
       </c>
       <c r="D19" t="n">
-        <v>480.4885076721826</v>
+        <v>480.4885076721839</v>
       </c>
       <c r="E19" t="n">
-        <v>392.9737095296053</v>
+        <v>392.9737095296064</v>
       </c>
       <c r="F19" t="n">
-        <v>306.4820574715109</v>
+        <v>306.4820574715117</v>
       </c>
       <c r="G19" t="n">
-        <v>199.1775162860457</v>
+        <v>199.1775162860462</v>
       </c>
       <c r="H19" t="n">
-        <v>113.3586249437193</v>
+        <v>113.3586249437196</v>
       </c>
       <c r="I19" t="n">
-        <v>76.43124320188058</v>
+        <v>76.4312432018806</v>
       </c>
       <c r="J19" t="n">
-        <v>121.5538756488161</v>
+        <v>121.5538756488162</v>
       </c>
       <c r="K19" t="n">
-        <v>325.5410585976925</v>
+        <v>384.7374279582558</v>
       </c>
       <c r="L19" t="n">
-        <v>642.1008570461886</v>
+        <v>760.4935957673152</v>
       </c>
       <c r="M19" t="n">
-        <v>1045.454272006301</v>
+        <v>1104.650641366864</v>
       </c>
       <c r="N19" t="n">
-        <v>1386.862648712166</v>
+        <v>1446.059018072729</v>
       </c>
       <c r="O19" t="n">
-        <v>1745.388616993143</v>
+        <v>1791.860360423391</v>
       </c>
       <c r="P19" t="n">
-        <v>1977.996117426802</v>
+        <v>2024.467860857051</v>
       </c>
       <c r="Q19" t="n">
-        <v>2102.078157009561</v>
+        <v>2102.078157009566</v>
       </c>
       <c r="R19" t="n">
-        <v>2072.645995206905</v>
+        <v>2072.645995206909</v>
       </c>
       <c r="S19" t="n">
-        <v>1941.358406473548</v>
+        <v>1941.358406473551</v>
       </c>
       <c r="T19" t="n">
-        <v>1779.99008648289</v>
+        <v>1779.990086482893</v>
       </c>
       <c r="U19" t="n">
-        <v>1551.285515048349</v>
+        <v>1551.285515048352</v>
       </c>
       <c r="V19" t="n">
-        <v>1356.999322282278</v>
+        <v>1356.99932228228</v>
       </c>
       <c r="W19" t="n">
-        <v>1127.980447685133</v>
+        <v>1127.980447685135</v>
       </c>
       <c r="X19" t="n">
-        <v>960.3891922269316</v>
+        <v>960.3891922269338</v>
       </c>
       <c r="Y19" t="n">
-        <v>799.9949085232174</v>
+        <v>799.9949085232194</v>
       </c>
     </row>
     <row r="20">
@@ -5726,61 +5726,61 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1900.913157883011</v>
+        <v>1900.91315788301</v>
       </c>
       <c r="C20" t="n">
-        <v>1592.348936382415</v>
+        <v>1592.348936382414</v>
       </c>
       <c r="D20" t="n">
-        <v>1294.481533215481</v>
+        <v>1294.481533215479</v>
       </c>
       <c r="E20" t="n">
-        <v>969.0915760570522</v>
+        <v>969.0915760570507</v>
       </c>
       <c r="F20" t="n">
-        <v>618.5039667072604</v>
+        <v>618.5039667072588</v>
       </c>
       <c r="G20" t="n">
-        <v>313.6165481532975</v>
+        <v>263.8298119920711</v>
       </c>
       <c r="H20" t="n">
-        <v>76.43124320188058</v>
+        <v>76.4312432018806</v>
       </c>
       <c r="I20" t="n">
-        <v>76.43124320188058</v>
+        <v>76.4312432018806</v>
       </c>
       <c r="J20" t="n">
-        <v>265.310374160906</v>
+        <v>265.3103741609061</v>
       </c>
       <c r="K20" t="n">
-        <v>599.1297478507524</v>
+        <v>599.1297478507526</v>
       </c>
       <c r="L20" t="n">
         <v>1050.163961099161</v>
       </c>
       <c r="M20" t="n">
-        <v>1670.675259921757</v>
+        <v>1583.695865771086</v>
       </c>
       <c r="N20" t="n">
-        <v>2616.511894545029</v>
+        <v>2130.474682829868</v>
       </c>
       <c r="O20" t="n">
-        <v>3119.484365424366</v>
+        <v>3010.439333159323</v>
       </c>
       <c r="P20" t="n">
-        <v>3514.258731781544</v>
+        <v>3514.258731781545</v>
       </c>
       <c r="Q20" t="n">
-        <v>3762.545093537226</v>
+        <v>3762.545093537227</v>
       </c>
       <c r="R20" t="n">
-        <v>3821.562160094029</v>
+        <v>3821.56216009403</v>
       </c>
       <c r="S20" t="n">
-        <v>3771.66978706094</v>
+        <v>3771.669787060941</v>
       </c>
       <c r="T20" t="n">
-        <v>3626.090334884977</v>
+        <v>3626.090334884978</v>
       </c>
       <c r="U20" t="n">
         <v>3432.95815359863</v>
@@ -5795,7 +5795,7 @@
         <v>2556.855739043312</v>
       </c>
       <c r="Y20" t="n">
-        <v>2227.114702507317</v>
+        <v>2227.114702507316</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>951.4629812508057</v>
+        <v>951.4629812508059</v>
       </c>
       <c r="C21" t="n">
-        <v>777.0099519696787</v>
+        <v>777.0099519696789</v>
       </c>
       <c r="D21" t="n">
-        <v>628.0755423084274</v>
+        <v>628.0755423084277</v>
       </c>
       <c r="E21" t="n">
-        <v>468.838087302972</v>
+        <v>468.8380873029721</v>
       </c>
       <c r="F21" t="n">
         <v>322.303529329857</v>
@@ -5823,10 +5823,10 @@
         <v>185.9404291624751</v>
       </c>
       <c r="H21" t="n">
-        <v>95.43853480034261</v>
+        <v>95.43853480034264</v>
       </c>
       <c r="I21" t="n">
-        <v>76.43124320188058</v>
+        <v>76.4312432018806</v>
       </c>
       <c r="J21" t="n">
         <v>170.1085126924979</v>
@@ -5847,16 +5847,16 @@
         <v>2106.831520180336</v>
       </c>
       <c r="P21" t="n">
-        <v>2417.331111656438</v>
+        <v>2417.331111656439</v>
       </c>
       <c r="Q21" t="n">
         <v>2574.972669303038</v>
       </c>
       <c r="R21" t="n">
-        <v>2574.828315895553</v>
+        <v>2574.828315895554</v>
       </c>
       <c r="S21" t="n">
-        <v>2445.390429389033</v>
+        <v>2445.390429389034</v>
       </c>
       <c r="T21" t="n">
         <v>2252.747429066889</v>
@@ -5868,7 +5868,7 @@
         <v>1789.527473969562</v>
       </c>
       <c r="W21" t="n">
-        <v>1535.29011724136</v>
+        <v>1535.290117241361</v>
       </c>
       <c r="X21" t="n">
         <v>1327.438617035828</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>678.7447391327936</v>
+        <v>678.7447391327953</v>
       </c>
       <c r="C22" t="n">
-        <v>570.2068516447025</v>
+        <v>570.206851644704</v>
       </c>
       <c r="D22" t="n">
-        <v>480.4885076721826</v>
+        <v>480.4885076721839</v>
       </c>
       <c r="E22" t="n">
-        <v>392.9737095296053</v>
+        <v>392.9737095296064</v>
       </c>
       <c r="F22" t="n">
-        <v>306.4820574715109</v>
+        <v>306.4820574715117</v>
       </c>
       <c r="G22" t="n">
-        <v>199.1775162860457</v>
+        <v>199.1775162860462</v>
       </c>
       <c r="H22" t="n">
-        <v>113.3586249437193</v>
+        <v>113.3586249437196</v>
       </c>
       <c r="I22" t="n">
-        <v>76.43124320188058</v>
+        <v>76.4312432018806</v>
       </c>
       <c r="J22" t="n">
-        <v>121.5538756488161</v>
+        <v>168.0256190790654</v>
       </c>
       <c r="K22" t="n">
-        <v>325.5410585976925</v>
+        <v>372.0128020279417</v>
       </c>
       <c r="L22" t="n">
-        <v>642.1008570461886</v>
+        <v>688.5726004764379</v>
       </c>
       <c r="M22" t="n">
-        <v>1032.729646075982</v>
+        <v>1091.92601543655</v>
       </c>
       <c r="N22" t="n">
-        <v>1433.33439214241</v>
+        <v>1433.334392142415</v>
       </c>
       <c r="O22" t="n">
-        <v>1791.860360423387</v>
+        <v>1732.663991062828</v>
       </c>
       <c r="P22" t="n">
-        <v>2024.467860857047</v>
+        <v>2024.467860857051</v>
       </c>
       <c r="Q22" t="n">
-        <v>2102.078157009561</v>
+        <v>2102.078157009566</v>
       </c>
       <c r="R22" t="n">
-        <v>2072.645995206905</v>
+        <v>2072.645995206909</v>
       </c>
       <c r="S22" t="n">
-        <v>1941.358406473548</v>
+        <v>1941.358406473551</v>
       </c>
       <c r="T22" t="n">
-        <v>1779.99008648289</v>
+        <v>1779.990086482893</v>
       </c>
       <c r="U22" t="n">
-        <v>1551.285515048349</v>
+        <v>1551.285515048352</v>
       </c>
       <c r="V22" t="n">
-        <v>1356.999322282278</v>
+        <v>1356.99932228228</v>
       </c>
       <c r="W22" t="n">
-        <v>1127.980447685133</v>
+        <v>1127.980447685135</v>
       </c>
       <c r="X22" t="n">
-        <v>960.3891922269316</v>
+        <v>960.3891922269338</v>
       </c>
       <c r="Y22" t="n">
-        <v>799.9949085232174</v>
+        <v>799.9949085232194</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1951.715949884261</v>
+        <v>1951.715949884262</v>
       </c>
       <c r="C23" t="n">
-        <v>1643.151728383665</v>
+        <v>1643.151728383667</v>
       </c>
       <c r="D23" t="n">
-        <v>1345.28432521673</v>
+        <v>1345.284325216732</v>
       </c>
       <c r="E23" t="n">
-        <v>1019.894368058302</v>
+        <v>1019.894368058303</v>
       </c>
       <c r="F23" t="n">
-        <v>669.3067587085102</v>
+        <v>669.3067587085111</v>
       </c>
       <c r="G23" t="n">
-        <v>314.6326039933225</v>
+        <v>314.6326039933228</v>
       </c>
       <c r="H23" t="n">
-        <v>77.44729904190557</v>
+        <v>77.44729904190565</v>
       </c>
       <c r="I23" t="n">
-        <v>77.44729904190557</v>
+        <v>77.44729904190565</v>
       </c>
       <c r="J23" t="n">
-        <v>433.7320790212841</v>
+        <v>266.3264300009311</v>
       </c>
       <c r="K23" t="n">
-        <v>767.5514527111305</v>
+        <v>600.1458036907776</v>
       </c>
       <c r="L23" t="n">
-        <v>1218.585665959539</v>
+        <v>1051.180016939186</v>
       </c>
       <c r="M23" t="n">
-        <v>2120.535869487496</v>
+        <v>1584.711921611111</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.314686546278</v>
+        <v>2290.322507096165</v>
       </c>
       <c r="O23" t="n">
-        <v>3170.287157425615</v>
+        <v>3170.28715742562</v>
       </c>
       <c r="P23" t="n">
-        <v>3565.061523782793</v>
+        <v>3565.061523782798</v>
       </c>
       <c r="Q23" t="n">
-        <v>3813.347885538476</v>
+        <v>3813.34788553848</v>
       </c>
       <c r="R23" t="n">
-        <v>3872.364952095278</v>
+        <v>3872.364952095283</v>
       </c>
       <c r="S23" t="n">
-        <v>3822.472579062189</v>
+        <v>3822.472579062193</v>
       </c>
       <c r="T23" t="n">
-        <v>3676.893126886227</v>
+        <v>3676.893126886231</v>
       </c>
       <c r="U23" t="n">
-        <v>3483.76094559988</v>
+        <v>3483.760945599883</v>
       </c>
       <c r="V23" t="n">
-        <v>3213.096353696125</v>
+        <v>3213.096353696128</v>
       </c>
       <c r="W23" t="n">
-        <v>2920.725993865827</v>
+        <v>2920.725993865829</v>
       </c>
       <c r="X23" t="n">
-        <v>2607.658531044563</v>
+        <v>2607.658531044565</v>
       </c>
       <c r="Y23" t="n">
-        <v>2277.917494508567</v>
+        <v>2277.917494508569</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>952.4790370908307</v>
+        <v>952.479037090831</v>
       </c>
       <c r="C24" t="n">
-        <v>778.0260078097037</v>
+        <v>778.026007809704</v>
       </c>
       <c r="D24" t="n">
-        <v>629.0915981484525</v>
+        <v>629.0915981484527</v>
       </c>
       <c r="E24" t="n">
-        <v>469.854143142997</v>
+        <v>469.8541431429971</v>
       </c>
       <c r="F24" t="n">
-        <v>323.319585169882</v>
+        <v>323.3195851698821</v>
       </c>
       <c r="G24" t="n">
-        <v>186.9564850025001</v>
+        <v>186.9564850025002</v>
       </c>
       <c r="H24" t="n">
-        <v>96.4545906403676</v>
+        <v>96.45459064036768</v>
       </c>
       <c r="I24" t="n">
-        <v>77.44729904190557</v>
+        <v>77.44729904190565</v>
       </c>
       <c r="J24" t="n">
-        <v>171.1245685325229</v>
+        <v>171.1245685325233</v>
       </c>
       <c r="K24" t="n">
-        <v>409.3887675128701</v>
+        <v>409.3887675128704</v>
       </c>
       <c r="L24" t="n">
-        <v>776.0869278255353</v>
+        <v>776.0869278255358</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.363253047851</v>
+        <v>1223.363253047852</v>
       </c>
       <c r="N24" t="n">
         <v>1696.886296602306</v>
@@ -6084,19 +6084,19 @@
         <v>2107.847576020361</v>
       </c>
       <c r="P24" t="n">
-        <v>2418.347167496463</v>
+        <v>2418.347167496464</v>
       </c>
       <c r="Q24" t="n">
-        <v>2575.988725143063</v>
+        <v>2575.988725143064</v>
       </c>
       <c r="R24" t="n">
         <v>2575.844371735579</v>
       </c>
       <c r="S24" t="n">
-        <v>2446.406485229058</v>
+        <v>2446.406485229059</v>
       </c>
       <c r="T24" t="n">
-        <v>2253.763484906914</v>
+        <v>2253.763484906915</v>
       </c>
       <c r="U24" t="n">
         <v>2025.69563804133</v>
@@ -6105,7 +6105,7 @@
         <v>1790.543529809587</v>
       </c>
       <c r="W24" t="n">
-        <v>1536.306173081385</v>
+        <v>1536.306173081386</v>
       </c>
       <c r="X24" t="n">
         <v>1328.454672875853</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>679.7607949728185</v>
+        <v>679.7607949728203</v>
       </c>
       <c r="C25" t="n">
-        <v>571.2229074847274</v>
+        <v>571.222907484729</v>
       </c>
       <c r="D25" t="n">
-        <v>481.5045635122076</v>
+        <v>481.5045635122089</v>
       </c>
       <c r="E25" t="n">
-        <v>393.9897653696303</v>
+        <v>393.9897653696314</v>
       </c>
       <c r="F25" t="n">
-        <v>307.4981133115359</v>
+        <v>307.4981133115367</v>
       </c>
       <c r="G25" t="n">
-        <v>200.1935721260707</v>
+        <v>200.1935721260713</v>
       </c>
       <c r="H25" t="n">
-        <v>114.3746807837443</v>
+        <v>114.3746807837447</v>
       </c>
       <c r="I25" t="n">
-        <v>77.44729904190557</v>
+        <v>77.44729904190565</v>
       </c>
       <c r="J25" t="n">
-        <v>122.5699314888411</v>
+        <v>122.5699314888412</v>
       </c>
       <c r="K25" t="n">
-        <v>326.5571144377175</v>
+        <v>326.5571144377176</v>
       </c>
       <c r="L25" t="n">
-        <v>702.3132822467771</v>
+        <v>643.1169128862136</v>
       </c>
       <c r="M25" t="n">
         <v>1046.470327846326</v>
       </c>
       <c r="N25" t="n">
-        <v>1387.878704552191</v>
+        <v>1447.075073912754</v>
       </c>
       <c r="O25" t="n">
-        <v>1687.208303472604</v>
+        <v>1746.404672833167</v>
       </c>
       <c r="P25" t="n">
         <v>1979.012173266827</v>
       </c>
       <c r="Q25" t="n">
-        <v>2103.094212849586</v>
+        <v>2103.09421284959</v>
       </c>
       <c r="R25" t="n">
-        <v>2073.66205104693</v>
+        <v>2073.662051046934</v>
       </c>
       <c r="S25" t="n">
-        <v>1942.374462313573</v>
+        <v>1942.374462313576</v>
       </c>
       <c r="T25" t="n">
-        <v>1781.006142322914</v>
+        <v>1781.006142322918</v>
       </c>
       <c r="U25" t="n">
-        <v>1552.301570888374</v>
+        <v>1552.301570888377</v>
       </c>
       <c r="V25" t="n">
-        <v>1358.015378122303</v>
+        <v>1358.015378122305</v>
       </c>
       <c r="W25" t="n">
-        <v>1128.996503525158</v>
+        <v>1128.996503525161</v>
       </c>
       <c r="X25" t="n">
-        <v>961.4052480669566</v>
+        <v>961.4052480669588</v>
       </c>
       <c r="Y25" t="n">
-        <v>801.0109643632424</v>
+        <v>801.0109643632444</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2109.724823379469</v>
+        <v>2109.724823379471</v>
       </c>
       <c r="C26" t="n">
-        <v>1776.963661557003</v>
+        <v>1776.963661557005</v>
       </c>
       <c r="D26" t="n">
-        <v>1454.899318068198</v>
+        <v>1454.899318068201</v>
       </c>
       <c r="E26" t="n">
-        <v>1105.3124205879</v>
+        <v>1105.312420587902</v>
       </c>
       <c r="F26" t="n">
-        <v>730.527870916238</v>
+        <v>730.52787091624</v>
       </c>
       <c r="G26" t="n">
-        <v>351.6567758791804</v>
+        <v>351.6567758791821</v>
       </c>
       <c r="H26" t="n">
-        <v>90.2745306058943</v>
+        <v>90.27453060589461</v>
       </c>
       <c r="I26" t="n">
-        <v>84.47898696330893</v>
+        <v>84.478986963309</v>
       </c>
       <c r="J26" t="n">
         <v>273.3581179223344</v>
       </c>
       <c r="K26" t="n">
-        <v>607.1774916121808</v>
+        <v>607.1774916121809</v>
       </c>
       <c r="L26" t="n">
         <v>1058.21170486059</v>
       </c>
       <c r="M26" t="n">
-        <v>2030.068830433293</v>
+        <v>1591.743609532514</v>
       </c>
       <c r="N26" t="n">
-        <v>2576.847647492076</v>
+        <v>2138.522426591297</v>
       </c>
       <c r="O26" t="n">
-        <v>3456.812297821531</v>
+        <v>2993.098991652714</v>
       </c>
       <c r="P26" t="n">
-        <v>3851.586664178709</v>
+        <v>3706.45407909966</v>
       </c>
       <c r="Q26" t="n">
-        <v>4099.873025934391</v>
+        <v>4164.932281608648</v>
       </c>
       <c r="R26" t="n">
-        <v>4223.949348165446</v>
+        <v>4223.94934816545</v>
       </c>
       <c r="S26" t="n">
-        <v>4149.860034810487</v>
+        <v>4149.860034810491</v>
       </c>
       <c r="T26" t="n">
-        <v>3980.083642312655</v>
+        <v>3980.083642312659</v>
       </c>
       <c r="U26" t="n">
-        <v>3762.754520704437</v>
+        <v>3762.754520704441</v>
       </c>
       <c r="V26" t="n">
-        <v>3467.892988478813</v>
+        <v>3467.892988478816</v>
       </c>
       <c r="W26" t="n">
-        <v>3151.325688326644</v>
+        <v>3151.325688326648</v>
       </c>
       <c r="X26" t="n">
-        <v>2814.06128518351</v>
+        <v>2814.061285183514</v>
       </c>
       <c r="Y26" t="n">
-        <v>2460.123308325645</v>
+        <v>2460.123308325647</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>959.5107250122339</v>
+        <v>959.5107250122343</v>
       </c>
       <c r="C27" t="n">
-        <v>785.0576957311069</v>
+        <v>785.0576957311073</v>
       </c>
       <c r="D27" t="n">
-        <v>636.1232860698557</v>
+        <v>636.123286069856</v>
       </c>
       <c r="E27" t="n">
-        <v>476.8858310644002</v>
+        <v>476.8858310644005</v>
       </c>
       <c r="F27" t="n">
-        <v>330.3512730912852</v>
+        <v>330.3512730912854</v>
       </c>
       <c r="G27" t="n">
-        <v>193.9881729239033</v>
+        <v>193.9881729239035</v>
       </c>
       <c r="H27" t="n">
-        <v>103.4862785617708</v>
+        <v>103.486278561771</v>
       </c>
       <c r="I27" t="n">
-        <v>84.47898696330893</v>
+        <v>84.478986963309</v>
       </c>
       <c r="J27" t="n">
         <v>178.1562564539263</v>
       </c>
       <c r="K27" t="n">
-        <v>416.4204554342734</v>
+        <v>416.4204554342735</v>
       </c>
       <c r="L27" t="n">
-        <v>783.1186157469388</v>
+        <v>783.1186157469389</v>
       </c>
       <c r="M27" t="n">
         <v>1230.394940969255</v>
@@ -6333,13 +6333,13 @@
         <v>2453.438173150462</v>
       </c>
       <c r="T27" t="n">
-        <v>2260.795172828317</v>
+        <v>2260.795172828318</v>
       </c>
       <c r="U27" t="n">
         <v>2032.727325962733</v>
       </c>
       <c r="V27" t="n">
-        <v>1797.57521773099</v>
+        <v>1797.575217730991</v>
       </c>
       <c r="W27" t="n">
         <v>1543.337861002789</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>856.1710651473115</v>
+        <v>588.003123054806</v>
       </c>
       <c r="C28" t="n">
-        <v>723.4362373373506</v>
+        <v>455.2682952448448</v>
       </c>
       <c r="D28" t="n">
-        <v>609.5209530429607</v>
+        <v>368.0036398714302</v>
       </c>
       <c r="E28" t="n">
-        <v>497.8092145785135</v>
+        <v>256.2919014069827</v>
       </c>
       <c r="F28" t="n">
-        <v>387.1206221985491</v>
+        <v>145.603309027018</v>
       </c>
       <c r="G28" t="n">
-        <v>255.6191406912139</v>
+        <v>145.603309027018</v>
       </c>
       <c r="H28" t="n">
-        <v>145.6033090270177</v>
+        <v>145.603309027018</v>
       </c>
       <c r="I28" t="n">
-        <v>84.47898696330893</v>
+        <v>84.478986963309</v>
       </c>
       <c r="J28" t="n">
-        <v>165.0825675613432</v>
+        <v>165.0825675613431</v>
       </c>
       <c r="K28" t="n">
-        <v>404.5506986613184</v>
+        <v>404.5506986613181</v>
       </c>
       <c r="L28" t="n">
-        <v>756.5914452609132</v>
+        <v>756.5914452609127</v>
       </c>
       <c r="M28" t="n">
-        <v>1136.229439011561</v>
+        <v>1136.22943901156</v>
       </c>
       <c r="N28" t="n">
-        <v>1513.118763868525</v>
+        <v>1513.118763868524</v>
       </c>
       <c r="O28" t="n">
-        <v>1847.929310940037</v>
+        <v>1847.929310940036</v>
       </c>
       <c r="P28" t="n">
-        <v>2116.017759524795</v>
+        <v>2116.017759524793</v>
       </c>
       <c r="Q28" t="n">
-        <v>2229.109003828408</v>
+        <v>2229.109003828406</v>
       </c>
       <c r="R28" t="n">
-        <v>2175.479901703882</v>
+        <v>2175.47990170388</v>
       </c>
       <c r="S28" t="n">
-        <v>2102.598054428627</v>
+        <v>2019.995372648652</v>
       </c>
       <c r="T28" t="n">
-        <v>2102.598054428627</v>
+        <v>1834.430112336124</v>
       </c>
       <c r="U28" t="n">
-        <v>1849.696542672217</v>
+        <v>1581.528600579712</v>
       </c>
       <c r="V28" t="n">
-        <v>1631.213409584276</v>
+        <v>1363.045467491771</v>
       </c>
       <c r="W28" t="n">
-        <v>1377.997594665261</v>
+        <v>1109.829652572756</v>
       </c>
       <c r="X28" t="n">
-        <v>1186.20939888519</v>
+        <v>918.0414567926846</v>
       </c>
       <c r="Y28" t="n">
-        <v>1001.618174859605</v>
+        <v>733.4502327671</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2109.724823379469</v>
+        <v>2109.724823379471</v>
       </c>
       <c r="C29" t="n">
-        <v>1776.963661557003</v>
+        <v>1776.963661557005</v>
       </c>
       <c r="D29" t="n">
-        <v>1454.899318068198</v>
+        <v>1454.899318068201</v>
       </c>
       <c r="E29" t="n">
-        <v>1105.3124205879</v>
+        <v>1105.312420587902</v>
       </c>
       <c r="F29" t="n">
-        <v>730.5278709162385</v>
+        <v>730.52787091624</v>
       </c>
       <c r="G29" t="n">
-        <v>351.6567758791807</v>
+        <v>351.6567758791821</v>
       </c>
       <c r="H29" t="n">
-        <v>90.2745306058943</v>
+        <v>90.27453060589461</v>
       </c>
       <c r="I29" t="n">
-        <v>84.47898696330893</v>
+        <v>84.478986963309</v>
       </c>
       <c r="J29" t="n">
-        <v>440.7637669426874</v>
+        <v>273.3581179223344</v>
       </c>
       <c r="K29" t="n">
-        <v>1095.487099077987</v>
+        <v>607.1774916121809</v>
       </c>
       <c r="L29" t="n">
-        <v>1546.521312326396</v>
+        <v>1058.21170486059</v>
       </c>
       <c r="M29" t="n">
-        <v>2080.05321699832</v>
+        <v>1591.743609532514</v>
       </c>
       <c r="N29" t="n">
-        <v>2626.832034057103</v>
+        <v>2571.495881759161</v>
       </c>
       <c r="O29" t="n">
-        <v>3129.80450493644</v>
+        <v>3451.460532088616</v>
       </c>
       <c r="P29" t="n">
-        <v>3706.454079099656</v>
+        <v>3846.234898445794</v>
       </c>
       <c r="Q29" t="n">
-        <v>4164.932281608644</v>
+        <v>4164.932281608648</v>
       </c>
       <c r="R29" t="n">
-        <v>4223.949348165446</v>
+        <v>4223.94934816545</v>
       </c>
       <c r="S29" t="n">
-        <v>4149.860034810487</v>
+        <v>4149.860034810491</v>
       </c>
       <c r="T29" t="n">
-        <v>3980.083642312655</v>
+        <v>3980.083642312659</v>
       </c>
       <c r="U29" t="n">
-        <v>3762.754520704438</v>
+        <v>3762.754520704441</v>
       </c>
       <c r="V29" t="n">
-        <v>3467.892988478813</v>
+        <v>3467.892988478816</v>
       </c>
       <c r="W29" t="n">
-        <v>3151.325688326645</v>
+        <v>3151.325688326648</v>
       </c>
       <c r="X29" t="n">
-        <v>2814.061285183511</v>
+        <v>2814.061285183514</v>
       </c>
       <c r="Y29" t="n">
-        <v>2460.123308325645</v>
+        <v>2460.123308325647</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>959.510725012234</v>
+        <v>959.5107250122343</v>
       </c>
       <c r="C30" t="n">
-        <v>785.0576957311071</v>
+        <v>785.0576957311073</v>
       </c>
       <c r="D30" t="n">
-        <v>636.1232860698558</v>
+        <v>636.123286069856</v>
       </c>
       <c r="E30" t="n">
-        <v>476.8858310644003</v>
+        <v>476.8858310644005</v>
       </c>
       <c r="F30" t="n">
-        <v>330.3512730912853</v>
+        <v>330.3512730912854</v>
       </c>
       <c r="G30" t="n">
-        <v>193.9881729239034</v>
+        <v>193.9881729239035</v>
       </c>
       <c r="H30" t="n">
         <v>103.486278561771</v>
       </c>
       <c r="I30" t="n">
-        <v>84.47898696330893</v>
+        <v>84.478986963309</v>
       </c>
       <c r="J30" t="n">
         <v>178.1562564539263</v>
       </c>
       <c r="K30" t="n">
-        <v>416.4204554342734</v>
+        <v>416.4204554342735</v>
       </c>
       <c r="L30" t="n">
-        <v>783.1186157469388</v>
+        <v>783.1186157469389</v>
       </c>
       <c r="M30" t="n">
         <v>1230.394940969255</v>
@@ -6570,13 +6570,13 @@
         <v>2453.438173150462</v>
       </c>
       <c r="T30" t="n">
-        <v>2260.795172828317</v>
+        <v>2260.795172828318</v>
       </c>
       <c r="U30" t="n">
         <v>2032.727325962733</v>
       </c>
       <c r="V30" t="n">
-        <v>1797.57521773099</v>
+        <v>1797.575217730991</v>
       </c>
       <c r="W30" t="n">
         <v>1543.337861002789</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>588.0031230548103</v>
+        <v>588.0031230548061</v>
       </c>
       <c r="C31" t="n">
-        <v>588.0031230548103</v>
+        <v>455.2682952448448</v>
       </c>
       <c r="D31" t="n">
-        <v>474.0878387604205</v>
+        <v>341.3530109504547</v>
       </c>
       <c r="E31" t="n">
-        <v>362.3761002959733</v>
+        <v>325.9963001348409</v>
       </c>
       <c r="F31" t="n">
-        <v>251.6875079160089</v>
+        <v>325.9963001348409</v>
       </c>
       <c r="G31" t="n">
-        <v>251.6875079160089</v>
+        <v>194.4948186275055</v>
       </c>
       <c r="H31" t="n">
-        <v>145.6033090270177</v>
+        <v>84.478986963309</v>
       </c>
       <c r="I31" t="n">
-        <v>84.47898696330893</v>
+        <v>84.478986963309</v>
       </c>
       <c r="J31" t="n">
         <v>165.0825675613432</v>
       </c>
       <c r="K31" t="n">
-        <v>404.5506986613188</v>
+        <v>404.5506986613182</v>
       </c>
       <c r="L31" t="n">
-        <v>756.5914452609136</v>
+        <v>756.5914452609129</v>
       </c>
       <c r="M31" t="n">
-        <v>1136.229439011561</v>
+        <v>1136.22943901156</v>
       </c>
       <c r="N31" t="n">
-        <v>1513.118763868525</v>
+        <v>1513.118763868524</v>
       </c>
       <c r="O31" t="n">
-        <v>1847.929310940037</v>
+        <v>1847.929310940036</v>
       </c>
       <c r="P31" t="n">
-        <v>2116.017759524795</v>
+        <v>2116.017759524793</v>
       </c>
       <c r="Q31" t="n">
-        <v>2229.109003828409</v>
+        <v>2229.109003828406</v>
       </c>
       <c r="R31" t="n">
-        <v>2175.479901703882</v>
+        <v>2175.47990170388</v>
       </c>
       <c r="S31" t="n">
-        <v>2019.995372648655</v>
+        <v>2019.995372648652</v>
       </c>
       <c r="T31" t="n">
-        <v>1834.430112336127</v>
+        <v>1834.430112336124</v>
       </c>
       <c r="U31" t="n">
-        <v>1581.528600579716</v>
+        <v>1581.528600579713</v>
       </c>
       <c r="V31" t="n">
-        <v>1363.045467491775</v>
+        <v>1363.045467491771</v>
       </c>
       <c r="W31" t="n">
-        <v>1109.82965257276</v>
+        <v>1109.829652572756</v>
       </c>
       <c r="X31" t="n">
-        <v>918.0414567926887</v>
+        <v>918.0414567926848</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.4502327671041</v>
+        <v>733.4502327671001</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2096.596160043295</v>
+        <v>2096.596160043297</v>
       </c>
       <c r="C32" t="n">
-        <v>1765.631938174663</v>
+        <v>1765.631938174665</v>
       </c>
       <c r="D32" t="n">
-        <v>1445.364534639692</v>
+        <v>1445.364534639694</v>
       </c>
       <c r="E32" t="n">
-        <v>1097.574577113228</v>
+        <v>1097.574577113229</v>
       </c>
       <c r="F32" t="n">
-        <v>724.5869673954007</v>
+        <v>724.5869673954015</v>
       </c>
       <c r="G32" t="n">
-        <v>347.5128123121764</v>
+        <v>347.5128123121776</v>
       </c>
       <c r="H32" t="n">
-        <v>87.92750699272347</v>
+        <v>87.92750699272375</v>
       </c>
       <c r="I32" t="n">
-        <v>83.92890330397202</v>
+        <v>83.92890330397209</v>
       </c>
       <c r="J32" t="n">
         <v>272.8080342629975</v>
       </c>
       <c r="K32" t="n">
-        <v>606.6274079528439</v>
+        <v>927.531366398297</v>
       </c>
       <c r="L32" t="n">
-        <v>1057.661621201253</v>
+        <v>1378.565579646706</v>
       </c>
       <c r="M32" t="n">
-        <v>1591.193525873177</v>
+        <v>1912.09748431863</v>
       </c>
       <c r="N32" t="n">
-        <v>2137.97234293196</v>
+        <v>2891.849756545277</v>
       </c>
       <c r="O32" t="n">
-        <v>3017.936993261415</v>
+        <v>3394.822227424614</v>
       </c>
       <c r="P32" t="n">
-        <v>3731.29208070836</v>
+        <v>3789.596593781792</v>
       </c>
       <c r="Q32" t="n">
-        <v>4137.428098641799</v>
+        <v>4072.368842967549</v>
       </c>
       <c r="R32" t="n">
-        <v>4196.445165198601</v>
+        <v>4196.445165198605</v>
       </c>
       <c r="S32" t="n">
-        <v>4124.152791797476</v>
+        <v>4124.152791797479</v>
       </c>
       <c r="T32" t="n">
-        <v>3956.173339253478</v>
+        <v>3956.173339253481</v>
       </c>
       <c r="U32" t="n">
-        <v>3740.641157599094</v>
+        <v>3740.641157599097</v>
       </c>
       <c r="V32" t="n">
-        <v>3447.576565327303</v>
+        <v>3447.576565327306</v>
       </c>
       <c r="W32" t="n">
-        <v>3132.806205128969</v>
+        <v>3132.806205128972</v>
       </c>
       <c r="X32" t="n">
-        <v>2797.338741939669</v>
+        <v>2797.338741939671</v>
       </c>
       <c r="Y32" t="n">
-        <v>2445.197705035637</v>
+        <v>2445.197705035639</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>958.9606413528971</v>
+        <v>958.9606413528974</v>
       </c>
       <c r="C33" t="n">
-        <v>784.5076120717702</v>
+        <v>784.5076120717704</v>
       </c>
       <c r="D33" t="n">
-        <v>635.5732024105189</v>
+        <v>635.5732024105191</v>
       </c>
       <c r="E33" t="n">
-        <v>476.3357474050634</v>
+        <v>476.3357474050636</v>
       </c>
       <c r="F33" t="n">
-        <v>329.8011894319484</v>
+        <v>329.8011894319485</v>
       </c>
       <c r="G33" t="n">
-        <v>193.4380892645665</v>
+        <v>193.4380892645666</v>
       </c>
       <c r="H33" t="n">
         <v>102.9361949024341</v>
       </c>
       <c r="I33" t="n">
-        <v>83.92890330397202</v>
+        <v>83.92890330397209</v>
       </c>
       <c r="J33" t="n">
         <v>177.6061727945894</v>
       </c>
       <c r="K33" t="n">
-        <v>415.8703717749364</v>
+        <v>415.8703717749366</v>
       </c>
       <c r="L33" t="n">
-        <v>782.5685320876017</v>
+        <v>782.568532087602</v>
       </c>
       <c r="M33" t="n">
         <v>1229.844857309918</v>
       </c>
       <c r="N33" t="n">
-        <v>1703.367900864372</v>
+        <v>1703.367900864373</v>
       </c>
       <c r="O33" t="n">
         <v>2114.329180282427</v>
@@ -6813,7 +6813,7 @@
         <v>2032.177242303396</v>
       </c>
       <c r="V33" t="n">
-        <v>1797.025134071653</v>
+        <v>1797.025134071654</v>
       </c>
       <c r="W33" t="n">
         <v>1542.787777343452</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>843.0424018111372</v>
+        <v>617.7149457699961</v>
       </c>
       <c r="C34" t="n">
-        <v>712.1045139550101</v>
+        <v>486.7770579138688</v>
       </c>
       <c r="D34" t="n">
-        <v>599.9861696144542</v>
+        <v>374.6587135733127</v>
       </c>
       <c r="E34" t="n">
-        <v>490.0713711038409</v>
+        <v>264.7439150626992</v>
       </c>
       <c r="F34" t="n">
-        <v>381.1797186777104</v>
+        <v>264.7439150626992</v>
       </c>
       <c r="G34" t="n">
-        <v>251.4751771242092</v>
+        <v>251.4751771242097</v>
       </c>
       <c r="H34" t="n">
-        <v>143.2562854138468</v>
+        <v>143.2562854138471</v>
       </c>
       <c r="I34" t="n">
-        <v>83.92890330397202</v>
+        <v>83.92890330397209</v>
       </c>
       <c r="J34" t="n">
-        <v>166.293664750759</v>
+        <v>166.2936647507589</v>
       </c>
       <c r="K34" t="n">
-        <v>407.5229766994868</v>
+        <v>407.5229766994865</v>
       </c>
       <c r="L34" t="n">
-        <v>761.3249041478341</v>
+        <v>761.3249041478338</v>
       </c>
       <c r="M34" t="n">
         <v>1142.724078747234</v>
       </c>
       <c r="N34" t="n">
-        <v>1521.374584452951</v>
+        <v>1521.37458445295</v>
       </c>
       <c r="O34" t="n">
-        <v>1857.946312373216</v>
+        <v>1857.946312373214</v>
       </c>
       <c r="P34" t="n">
-        <v>2127.795941806726</v>
+        <v>2127.795941806725</v>
       </c>
       <c r="Q34" t="n">
-        <v>2242.648366959093</v>
+        <v>2242.648366959091</v>
       </c>
       <c r="R34" t="n">
-        <v>2190.8162047884</v>
+        <v>2190.816204788398</v>
       </c>
       <c r="S34" t="n">
-        <v>2037.128615687006</v>
+        <v>2037.128615687004</v>
       </c>
       <c r="T34" t="n">
-        <v>1853.360295328312</v>
+        <v>1853.36029532831</v>
       </c>
       <c r="U34" t="n">
-        <v>1602.255723525736</v>
+        <v>1602.255723525733</v>
       </c>
       <c r="V34" t="n">
-        <v>1385.569530391629</v>
+        <v>1385.569530391626</v>
       </c>
       <c r="W34" t="n">
-        <v>1359.478111467585</v>
+        <v>1134.150655426445</v>
       </c>
       <c r="X34" t="n">
-        <v>1169.486855641347</v>
+        <v>944.1593996002068</v>
       </c>
       <c r="Y34" t="n">
-        <v>986.6925715695971</v>
+        <v>761.3651155284563</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1301.124196069041</v>
       </c>
       <c r="E35" t="n">
-        <v>986.0382690450734</v>
+        <v>986.0382690450738</v>
       </c>
       <c r="F35" t="n">
-        <v>645.7546898297425</v>
+        <v>645.7546898297428</v>
       </c>
       <c r="G35" t="n">
-        <v>301.3845652490159</v>
+        <v>301.3845652490158</v>
       </c>
       <c r="H35" t="n">
         <v>74.50329043205964</v>
@@ -6935,28 +6935,28 @@
         <v>74.50329043205964</v>
       </c>
       <c r="J35" t="n">
-        <v>430.7880704114381</v>
+        <v>263.3824213910851</v>
       </c>
       <c r="K35" t="n">
-        <v>764.6074441012846</v>
+        <v>918.1057535263847</v>
       </c>
       <c r="L35" t="n">
-        <v>1215.641657349694</v>
+        <v>1369.139966774793</v>
       </c>
       <c r="M35" t="n">
-        <v>1749.173562021618</v>
+        <v>1973.3354389952</v>
       </c>
       <c r="N35" t="n">
-        <v>2295.952379080401</v>
+        <v>2520.114256053982</v>
       </c>
       <c r="O35" t="n">
-        <v>2798.924849959737</v>
+        <v>3023.086726933319</v>
       </c>
       <c r="P35" t="n">
-        <v>3193.699216316916</v>
+        <v>3417.861093290498</v>
       </c>
       <c r="Q35" t="n">
-        <v>3652.177418825904</v>
+        <v>3666.14745504618</v>
       </c>
       <c r="R35" t="n">
         <v>3725.164521602982</v>
@@ -6968,13 +6968,13 @@
         <v>3550.300756662853</v>
       </c>
       <c r="U35" t="n">
-        <v>3367.472605510966</v>
+        <v>3367.472605510965</v>
       </c>
       <c r="V35" t="n">
-        <v>3107.112043741672</v>
+        <v>3107.112043741671</v>
       </c>
       <c r="W35" t="n">
-        <v>2825.045714045834</v>
+        <v>2825.045714045833</v>
       </c>
       <c r="X35" t="n">
         <v>2522.282281359031</v>
@@ -7029,13 +7029,13 @@
         <v>1693.94228799246</v>
       </c>
       <c r="O36" t="n">
-        <v>2104.903567410515</v>
+        <v>2104.903567410514</v>
       </c>
       <c r="P36" t="n">
-        <v>2415.403158886618</v>
+        <v>2415.403158886617</v>
       </c>
       <c r="Q36" t="n">
-        <v>2573.044716533218</v>
+        <v>2573.044716533217</v>
       </c>
       <c r="R36" t="n">
         <v>2572.900363125732</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>604.6885754217478</v>
+        <v>604.6885754217471</v>
       </c>
       <c r="C37" t="n">
-        <v>506.4547180681174</v>
+        <v>506.4547180681168</v>
       </c>
       <c r="D37" t="n">
-        <v>427.0404042300582</v>
+        <v>427.0404042300577</v>
       </c>
       <c r="E37" t="n">
-        <v>349.8296362219417</v>
+        <v>349.8296362219412</v>
       </c>
       <c r="F37" t="n">
-        <v>273.6420142983079</v>
+        <v>273.6420142983075</v>
       </c>
       <c r="G37" t="n">
-        <v>176.6415032473034</v>
+        <v>176.641503247303</v>
       </c>
       <c r="H37" t="n">
         <v>101.1266420394377</v>
@@ -7096,13 +7096,13 @@
         <v>119.6259228789952</v>
       </c>
       <c r="K37" t="n">
-        <v>323.6131058278715</v>
+        <v>323.6131058278717</v>
       </c>
       <c r="L37" t="n">
         <v>640.1729042763677</v>
       </c>
       <c r="M37" t="n">
-        <v>984.3299498759168</v>
+        <v>984.3299498759167</v>
       </c>
       <c r="N37" t="n">
         <v>1325.738326581781</v>
@@ -7117,16 +7117,16 @@
         <v>1935.285722088369</v>
       </c>
       <c r="R37" t="n">
-        <v>1916.157590420174</v>
+        <v>1916.157590420173</v>
       </c>
       <c r="S37" t="n">
-        <v>1795.174031821277</v>
+        <v>1795.174031821276</v>
       </c>
       <c r="T37" t="n">
         <v>1644.109741965079</v>
       </c>
       <c r="U37" t="n">
-        <v>1425.709200665</v>
+        <v>1425.709200664999</v>
       </c>
       <c r="V37" t="n">
         <v>1241.727038033389</v>
@@ -7135,10 +7135,10 @@
         <v>1023.012193570705</v>
       </c>
       <c r="X37" t="n">
-        <v>865.7249682469644</v>
+        <v>865.7249682469637</v>
       </c>
       <c r="Y37" t="n">
-        <v>715.6347146777109</v>
+        <v>715.6347146777102</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1886.947760467651</v>
+        <v>1886.947760467649</v>
       </c>
       <c r="C38" t="n">
-        <v>1588.687569101515</v>
+        <v>1588.687569101514</v>
       </c>
       <c r="D38" t="n">
-        <v>1301.124196069042</v>
+        <v>1301.124196069041</v>
       </c>
       <c r="E38" t="n">
-        <v>986.0382690450742</v>
+        <v>986.0382690450732</v>
       </c>
       <c r="F38" t="n">
-        <v>645.754689829743</v>
+        <v>645.7546898297423</v>
       </c>
       <c r="G38" t="n">
         <v>301.3845652490158</v>
       </c>
       <c r="H38" t="n">
-        <v>74.50329043205964</v>
+        <v>74.50329043205963</v>
       </c>
       <c r="I38" t="n">
-        <v>74.50329043205964</v>
+        <v>74.50329043205963</v>
       </c>
       <c r="J38" t="n">
-        <v>263.3824213910851</v>
+        <v>263.3824213910852</v>
       </c>
       <c r="K38" t="n">
-        <v>597.2017950809316</v>
+        <v>918.1057535263849</v>
       </c>
       <c r="L38" t="n">
-        <v>1048.23600832934</v>
+        <v>1369.139966774794</v>
       </c>
       <c r="M38" t="n">
-        <v>1581.767913001265</v>
+        <v>1973.335438995199</v>
       </c>
       <c r="N38" t="n">
-        <v>2128.546730060047</v>
+        <v>2520.114256053981</v>
       </c>
       <c r="O38" t="n">
-        <v>2631.519200939384</v>
+        <v>3023.086726933318</v>
       </c>
       <c r="P38" t="n">
-        <v>3344.87428838633</v>
+        <v>3417.861093290496</v>
       </c>
       <c r="Q38" t="n">
-        <v>3666.14745504618</v>
+        <v>3666.147455046178</v>
       </c>
       <c r="R38" t="n">
-        <v>3725.164521602982</v>
+        <v>3725.164521602981</v>
       </c>
       <c r="S38" t="n">
-        <v>3685.576178704354</v>
+        <v>3685.576178704353</v>
       </c>
       <c r="T38" t="n">
-        <v>3550.300756662853</v>
+        <v>3550.300756662851</v>
       </c>
       <c r="U38" t="n">
-        <v>3367.472605510966</v>
+        <v>3367.472605510965</v>
       </c>
       <c r="V38" t="n">
-        <v>3107.112043741672</v>
+        <v>3107.11204374167</v>
       </c>
       <c r="W38" t="n">
-        <v>2825.045714045834</v>
+        <v>2825.045714045833</v>
       </c>
       <c r="X38" t="n">
-        <v>2522.282281359031</v>
+        <v>2522.28228135903</v>
       </c>
       <c r="Y38" t="n">
-        <v>2202.845274957496</v>
+        <v>2202.845274957494</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>949.5350284809848</v>
+        <v>949.5350284809851</v>
       </c>
       <c r="C39" t="n">
-        <v>775.0819991998578</v>
+        <v>775.0819991998582</v>
       </c>
       <c r="D39" t="n">
-        <v>626.1475895386066</v>
+        <v>626.147589538607</v>
       </c>
       <c r="E39" t="n">
-        <v>466.9101345331511</v>
+        <v>466.9101345331514</v>
       </c>
       <c r="F39" t="n">
-        <v>320.3755765600361</v>
+        <v>320.3755765600365</v>
       </c>
       <c r="G39" t="n">
-        <v>184.0124763926542</v>
+        <v>184.0124763926547</v>
       </c>
       <c r="H39" t="n">
-        <v>93.51058203052168</v>
+        <v>93.51058203052207</v>
       </c>
       <c r="I39" t="n">
-        <v>74.50329043205964</v>
+        <v>74.50329043205963</v>
       </c>
       <c r="J39" t="n">
-        <v>168.180559922677</v>
+        <v>168.1805599226768</v>
       </c>
       <c r="K39" t="n">
-        <v>406.4447589030241</v>
+        <v>406.4447589030242</v>
       </c>
       <c r="L39" t="n">
-        <v>773.1429192156895</v>
+        <v>773.1429192156893</v>
       </c>
       <c r="M39" t="n">
-        <v>1220.419244438006</v>
+        <v>1220.419244438005</v>
       </c>
       <c r="N39" t="n">
         <v>1693.94228799246</v>
@@ -7275,22 +7275,22 @@
         <v>2573.044716533218</v>
       </c>
       <c r="R39" t="n">
-        <v>2572.900363125732</v>
+        <v>2572.900363125733</v>
       </c>
       <c r="S39" t="n">
-        <v>2443.462476619212</v>
+        <v>2443.462476619213</v>
       </c>
       <c r="T39" t="n">
-        <v>2250.819476297068</v>
+        <v>2250.819476297069</v>
       </c>
       <c r="U39" t="n">
         <v>2022.751629431484</v>
       </c>
       <c r="V39" t="n">
-        <v>1787.599521199741</v>
+        <v>1787.599521199742</v>
       </c>
       <c r="W39" t="n">
-        <v>1533.362164471539</v>
+        <v>1533.36216447154</v>
       </c>
       <c r="X39" t="n">
         <v>1325.510664266007</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>604.6885754217471</v>
+        <v>604.6885754217474</v>
       </c>
       <c r="C40" t="n">
-        <v>506.4547180681168</v>
+        <v>506.454718068117</v>
       </c>
       <c r="D40" t="n">
-        <v>427.0404042300577</v>
+        <v>427.0404042300579</v>
       </c>
       <c r="E40" t="n">
-        <v>349.8296362219412</v>
+        <v>349.8296362219414</v>
       </c>
       <c r="F40" t="n">
-        <v>273.6420142983075</v>
+        <v>273.6420142983077</v>
       </c>
       <c r="G40" t="n">
-        <v>176.641503247303</v>
+        <v>176.6415032473033</v>
       </c>
       <c r="H40" t="n">
-        <v>101.1266420394375</v>
+        <v>101.1266420394377</v>
       </c>
       <c r="I40" t="n">
-        <v>74.50329043205964</v>
+        <v>74.50329043205963</v>
       </c>
       <c r="J40" t="n">
         <v>119.6259228789952</v>
       </c>
       <c r="K40" t="n">
-        <v>323.6131058278713</v>
+        <v>323.6131058278717</v>
       </c>
       <c r="L40" t="n">
-        <v>640.1729042763675</v>
+        <v>640.1729042763679</v>
       </c>
       <c r="M40" t="n">
-        <v>984.3299498759166</v>
+        <v>984.329949875917</v>
       </c>
       <c r="N40" t="n">
-        <v>1325.738326581781</v>
+        <v>1325.738326581782</v>
       </c>
       <c r="O40" t="n">
         <v>1625.067925502195</v>
       </c>
       <c r="P40" t="n">
-        <v>1857.675425935854</v>
+        <v>1857.675425935855</v>
       </c>
       <c r="Q40" t="n">
-        <v>1935.285722088369</v>
+        <v>1935.28572208837</v>
       </c>
       <c r="R40" t="n">
-        <v>1916.157590420173</v>
+        <v>1916.157590420174</v>
       </c>
       <c r="S40" t="n">
-        <v>1795.174031821276</v>
+        <v>1795.174031821277</v>
       </c>
       <c r="T40" t="n">
-        <v>1644.109741965079</v>
+        <v>1644.10974196508</v>
       </c>
       <c r="U40" t="n">
-        <v>1425.709200664999</v>
+        <v>1425.709200665</v>
       </c>
       <c r="V40" t="n">
-        <v>1241.727038033389</v>
+        <v>1241.72703803339</v>
       </c>
       <c r="W40" t="n">
-        <v>1023.012193570704</v>
+        <v>1023.012193570706</v>
       </c>
       <c r="X40" t="n">
-        <v>865.7249682469637</v>
+        <v>865.7249682469651</v>
       </c>
       <c r="Y40" t="n">
-        <v>715.6347146777102</v>
+        <v>715.6347146777105</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1728.817513434839</v>
+        <v>1369.318056916146</v>
       </c>
       <c r="C41" t="n">
-        <v>1407.304629442501</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="D41" t="n">
-        <v>1096.488563783824</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="E41" t="n">
-        <v>758.1499441336528</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="F41" t="n">
-        <v>434.1349336391136</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912092</v>
@@ -7421,40 +7421,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V41" t="n">
-        <v>3041.992567213674</v>
+        <v>2682.49311069498</v>
       </c>
       <c r="W41" t="n">
-        <v>2736.673544891633</v>
+        <v>2377.174088372939</v>
       </c>
       <c r="X41" t="n">
-        <v>2410.657419578627</v>
+        <v>2051.157963059933</v>
       </c>
       <c r="Y41" t="n">
-        <v>2067.967720550888</v>
+        <v>1708.468264032194</v>
       </c>
     </row>
     <row r="42">
@@ -7479,22 +7479,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C43" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D43" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E43" t="n">
-        <v>434.8492327268786</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F43" t="n">
         <v>335.4089181770415</v>
       </c>
       <c r="G43" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657646</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K43" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L43" t="n">
         <v>771.6978860337115</v>
@@ -7588,13 +7588,13 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q43" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R43" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T43" t="n">
         <v>1938.403572105846</v>
@@ -7612,7 +7612,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2012.430767830336</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C44" t="n">
-        <v>1690.917883837998</v>
+        <v>979.8546354718746</v>
       </c>
       <c r="D44" t="n">
-        <v>1380.101818179321</v>
+        <v>797.6712054806479</v>
       </c>
       <c r="E44" t="n">
-        <v>1041.76319852915</v>
+        <v>797.6712054806479</v>
       </c>
       <c r="F44" t="n">
-        <v>678.2269266876158</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G44" t="n">
-        <v>310.6041094806857</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W44" t="n">
-        <v>3020.28679928713</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X44" t="n">
-        <v>2694.270673974123</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y44" t="n">
-        <v>2351.580974946385</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="45">
@@ -7716,16 +7716,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7801,16 +7801,16 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K46" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L46" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M46" t="n">
         <v>1162.360316885667</v>
@@ -7825,28 +7825,28 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q46" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R46" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T46" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U46" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V46" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W46" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X46" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y46" t="n">
         <v>893.6650816874608</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L8" t="n">
-        <v>242.6424607116987</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>236.944458939016</v>
+        <v>237.2222789689842</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
-        <v>236.9742571633982</v>
+        <v>236.69643713343</v>
       </c>
       <c r="P8" t="n">
-        <v>238.109041496981</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,19 +8538,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
-        <v>137.9399377950766</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
         <v>149.4722901861559</v>
       </c>
       <c r="P9" t="n">
-        <v>140.8504531560417</v>
+        <v>140.5726331260735</v>
       </c>
       <c r="Q9" t="n">
-        <v>146.857819827733</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,13 +8617,13 @@
         <v>141.7607220229497</v>
       </c>
       <c r="M10" t="n">
-        <v>145.8018296893165</v>
+        <v>145.5240096593483</v>
       </c>
       <c r="N10" t="n">
         <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
-        <v>145.0547641635861</v>
+        <v>145.3325841935542</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>95.42392497093493</v>
+        <v>95.42392497093761</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.42392497093493</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>95.42392497093783</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-1.35003119794419e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>321.8500633280894</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9179,10 +9179,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>169.1479703286804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9407,16 +9407,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>87.85797388956678</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>403.0887046105958</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>110.1464972374179</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,13 +9644,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>372.1396958141738</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>160.4361297235066</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>442.7527483846255</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>355.1556506889704</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.598721155460225e-13</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,16 +10121,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>183.7123311172106</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>71.12224384562782</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,19 +10358,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>159.444097149249</v>
+        <v>34.83422972734829</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>71.37734095806275</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>14.11114769724864</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>71.37734095806104</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>73.72404535774533</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>50.47879874801651</v>
+        <v>252.4625926342966</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>256.5082725460387</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>298.1114265167444</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>49.28886879961476</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>49.28886879961172</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23981,10 +23981,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>49.28886879961215</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>49.28886879961436</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>26.38412263176571</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>130.186466692262</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>108.9156733475546</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>81.77665496217298</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>183.7096077094027</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>131.4074795318614</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>95.39147737234529</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>109.5817064561651</v>
       </c>
       <c r="G31" t="n">
-        <v>130.1864666922618</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>3.892316447453084</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>60.5130788430719</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25084,10 +25084,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>107.8027359018694</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>115.2714455788618</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>223.0741814807258</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25631,19 +25631,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>39.12604873352497</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,16 +25676,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958329</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>67.27103207741375</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.918465386552271e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25868,10 +25868,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>127.3463093107761</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.981554650710672</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,16 +25913,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>629578.042838302</v>
+        <v>629578.0428383021</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>629578.0428383019</v>
+        <v>629578.0428383021</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>677498.6185546821</v>
+        <v>677498.6185546819</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>677498.6185546821</v>
+        <v>677498.6185546819</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>682138.4792495511</v>
+        <v>682138.4792495512</v>
       </c>
     </row>
     <row r="10">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>778312.5217811867</v>
+      </c>
+      <c r="C2" t="n">
         <v>778312.5217811866</v>
       </c>
-      <c r="C2" t="n">
-        <v>778312.5217811867</v>
-      </c>
       <c r="D2" t="n">
-        <v>779352.4549391626</v>
+        <v>779352.4549391628</v>
       </c>
       <c r="E2" t="n">
-        <v>733376.8190532466</v>
+        <v>733376.8190532471</v>
       </c>
       <c r="F2" t="n">
-        <v>733376.8190532469</v>
+        <v>733376.8190532475</v>
       </c>
       <c r="G2" t="n">
-        <v>776262.4571124417</v>
+        <v>776262.4571124425</v>
       </c>
       <c r="H2" t="n">
-        <v>776262.4571124425</v>
+        <v>776262.4571124424</v>
       </c>
       <c r="I2" t="n">
         <v>779989.6813710692</v>
       </c>
       <c r="J2" t="n">
-        <v>773936.5945821565</v>
+        <v>773936.5945821572</v>
       </c>
       <c r="K2" t="n">
-        <v>773936.5945821565</v>
+        <v>773936.5945821569</v>
       </c>
       <c r="L2" t="n">
-        <v>774903.5900333081</v>
+        <v>774903.590033308</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710682</v>
       </c>
       <c r="O2" t="n">
-        <v>726304.4593953514</v>
+        <v>726304.4593953502</v>
       </c>
       <c r="P2" t="n">
         <v>726304.4593953512</v>
@@ -26378,28 +26378,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37633.60226541107</v>
+        <v>37633.60226541074</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3377.382312941043</v>
+        <v>3377.382312941285</v>
       </c>
       <c r="J3" t="n">
-        <v>41413.61949129889</v>
+        <v>41413.61949129876</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>11678.51713689659</v>
+        <v>11678.51713689641</v>
       </c>
       <c r="M3" t="n">
-        <v>208021.036246013</v>
+        <v>208021.0362460132</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>425420.8672695345</v>
       </c>
       <c r="E4" t="n">
-        <v>59855.46726059784</v>
+        <v>59855.46726059794</v>
       </c>
       <c r="F4" t="n">
-        <v>59855.46726059785</v>
+        <v>59855.46726059794</v>
       </c>
       <c r="G4" t="n">
-        <v>79798.26735468619</v>
+        <v>79798.26735468605</v>
       </c>
       <c r="H4" t="n">
-        <v>79798.26735468619</v>
+        <v>79798.26735468605</v>
       </c>
       <c r="I4" t="n">
-        <v>81305.41746651466</v>
+        <v>81305.41746651463</v>
       </c>
       <c r="J4" t="n">
-        <v>72638.56530812185</v>
+        <v>72638.56530812173</v>
       </c>
       <c r="K4" t="n">
-        <v>72638.56530812185</v>
+        <v>72638.56530812172</v>
       </c>
       <c r="L4" t="n">
-        <v>73620.3386330521</v>
+        <v>73620.33863305196</v>
       </c>
       <c r="M4" t="n">
-        <v>83375.54921344887</v>
+        <v>83375.54921344895</v>
       </c>
       <c r="N4" t="n">
-        <v>83375.54921344892</v>
+        <v>83375.54921344889</v>
       </c>
       <c r="O4" t="n">
-        <v>56995.6694835739</v>
+        <v>56995.66948357391</v>
       </c>
       <c r="P4" t="n">
         <v>56995.6694835739</v>
@@ -26476,28 +26476,28 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>79720.73742684566</v>
+        <v>79720.73742684571</v>
       </c>
       <c r="F5" t="n">
-        <v>79720.73742684566</v>
+        <v>79720.73742684571</v>
       </c>
       <c r="G5" t="n">
-        <v>86871.72496269972</v>
+        <v>86871.72496269971</v>
       </c>
       <c r="H5" t="n">
-        <v>86871.72496269972</v>
+        <v>86871.72496269971</v>
       </c>
       <c r="I5" t="n">
-        <v>87643.92740111871</v>
+        <v>87643.92740111875</v>
       </c>
       <c r="J5" t="n">
-        <v>90974.13977122516</v>
+        <v>90974.13977122521</v>
       </c>
       <c r="K5" t="n">
-        <v>90974.13977122516</v>
+        <v>90974.13977122521</v>
       </c>
       <c r="L5" t="n">
-        <v>90705.6324656582</v>
+        <v>90705.63246565823</v>
       </c>
       <c r="M5" t="n">
         <v>86264.06787191605</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>319161.7826150831</v>
+        <v>319157.3690372151</v>
       </c>
       <c r="C6" t="n">
-        <v>319161.7826150832</v>
+        <v>319157.3690372149</v>
       </c>
       <c r="D6" t="n">
-        <v>317750.0179997843</v>
+        <v>317748.3410881216</v>
       </c>
       <c r="E6" t="n">
-        <v>-572690.0668078107</v>
+        <v>-572812.7322349624</v>
       </c>
       <c r="F6" t="n">
-        <v>593800.6143658033</v>
+        <v>593677.9489386516</v>
       </c>
       <c r="G6" t="n">
-        <v>571958.8625296447</v>
+        <v>571949.0540447549</v>
       </c>
       <c r="H6" t="n">
-        <v>609592.4647950566</v>
+        <v>609582.6563101655</v>
       </c>
       <c r="I6" t="n">
-        <v>607662.9541904948</v>
+        <v>607662.9541904945</v>
       </c>
       <c r="J6" t="n">
-        <v>568910.2700115106</v>
+        <v>568894.3408357513</v>
       </c>
       <c r="K6" t="n">
-        <v>610323.8895028095</v>
+        <v>610307.9603270497</v>
       </c>
       <c r="L6" t="n">
-        <v>598899.1017977012</v>
+        <v>598885.7173468126</v>
       </c>
       <c r="M6" t="n">
-        <v>402329.0280396909</v>
+        <v>402329.0280396908</v>
       </c>
       <c r="N6" t="n">
-        <v>610350.0642857044</v>
+        <v>610350.0642857032</v>
       </c>
       <c r="O6" t="n">
-        <v>591053.2965899957</v>
+        <v>590912.0196900584</v>
       </c>
       <c r="P6" t="n">
-        <v>591053.2965899956</v>
+        <v>590912.0196900595</v>
       </c>
     </row>
   </sheetData>
@@ -26698,28 +26698,28 @@
         <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="H2" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="I2" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="J2" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="K2" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="L2" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="M2" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="N2" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859254</v>
@@ -26771,7 +26771,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>855.5008650250544</v>
+        <v>855.5008650250551</v>
       </c>
       <c r="F4" t="n">
-        <v>855.5008650250544</v>
+        <v>855.5008650250551</v>
       </c>
       <c r="G4" t="n">
-        <v>955.3905400235072</v>
+        <v>955.3905400235075</v>
       </c>
       <c r="H4" t="n">
-        <v>955.3905400235072</v>
+        <v>955.3905400235075</v>
       </c>
       <c r="I4" t="n">
-        <v>968.0912380238195</v>
+        <v>968.0912380238207</v>
       </c>
       <c r="J4" t="n">
         <v>1055.987337041362</v>
@@ -26817,19 +26817,19 @@
         <v>1055.987337041362</v>
       </c>
       <c r="L4" t="n">
-        <v>1049.11129129965</v>
+        <v>1049.111291299651</v>
       </c>
       <c r="M4" t="n">
         <v>931.2911304007456</v>
       </c>
       <c r="N4" t="n">
-        <v>931.2911304007456</v>
+        <v>931.2911304007453</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.81917586682515</v>
+        <v>12.81917586682489</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>23.02016569994129</v>
+        <v>23.0201656999413</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59814642112074</v>
+        <v>14.59814642112051</v>
       </c>
       <c r="M2" t="n">
-        <v>32.37699019747176</v>
+        <v>32.37699019747203</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,22 +27018,22 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>848.624819283343</v>
+        <v>848.6248192833436</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>99.88967499845285</v>
+        <v>99.88967499845239</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.70069800031229</v>
+        <v>12.7006980003132</v>
       </c>
       <c r="J4" t="n">
-        <v>87.89609901754235</v>
+        <v>87.89609901754181</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>730.8046583844383</v>
+        <v>730.8046583844381</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>12.81917586682515</v>
+        <v>12.81917586682489</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.02016569994129</v>
+        <v>23.0201656999413</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>848.624819283343</v>
+        <v>848.6248192833436</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>99.88967499845285</v>
+        <v>99.88967499845239</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>5.892868265313084</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.114653472833368</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>202.9636484969459</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>362.8550549367576</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27947,7 +27947,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>105.359398494785</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27986,19 +27986,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>219.8849609916754</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W9" t="n">
-        <v>245.6385620716202</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X9" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>198.8066500355929</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.9559344402259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>161.1904000093284</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28056,10 +28056,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>170.417345635458</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>280.4665772472916</v>
       </c>
       <c r="X10" t="n">
         <v>218.8336096473257</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.7086076103834</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28506,7 +28506,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859226</v>
       </c>
       <c r="K16" t="n">
         <v>46.97513661859256</v>
@@ -28515,7 +28515,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
         <v>46.97513661859256</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="C17" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="D17" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="E17" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="F17" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="G17" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="H17" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="T17" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="U17" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="V17" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="W17" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="X17" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="Y17" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="C19" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="D19" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="E19" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="F19" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="G19" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="H19" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="I19" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="M19" t="n">
-        <v>59.79431248541771</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>59.79431248541771</v>
+        <v>46.94115498004959</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.94115498004504</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="S19" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="T19" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="U19" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="V19" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="W19" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="X19" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="C20" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="D20" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="E20" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="F20" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="G20" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="H20" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="T20" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="U20" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="V20" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="W20" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="X20" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="Y20" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="C22" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="D22" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="E22" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="F22" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="G22" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="H22" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="I22" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>46.94115498004969</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,43 +28989,43 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>46.94115498004498</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="N22" t="n">
-        <v>59.79431248541771</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>59.79431248541771</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="S22" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="T22" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="U22" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="V22" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="W22" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="X22" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="C23" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="D23" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="E23" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="F23" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="G23" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="H23" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="T23" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="U23" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="V23" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="W23" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="X23" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="Y23" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="C25" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="D25" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="E25" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="F25" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="G25" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="H25" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="I25" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29223,46 +29223,46 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>59.79431248541771</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>59.79431248541771</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.94115498004481</v>
+        <v>46.9411549800494</v>
       </c>
       <c r="R25" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="S25" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="T25" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="U25" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="V25" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="W25" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="X25" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.79431248541771</v>
+        <v>59.79431248541746</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="C26" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="D26" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="E26" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="F26" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="G26" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="H26" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="I26" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="T26" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="U26" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="V26" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="W26" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="X26" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="Y26" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="C28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="D28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="E28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="F28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="G28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="H28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="I28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="J28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="K28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="L28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="M28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="N28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="O28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="P28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="Q28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="R28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="S28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="T28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="U28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="V28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="W28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="X28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="C29" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="D29" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="E29" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="F29" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="G29" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="H29" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="I29" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="T29" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="U29" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="V29" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="W29" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="X29" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="Y29" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="C31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="D31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="E31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="F31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="G31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="H31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="I31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="J31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="K31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="L31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="M31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="N31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="O31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="P31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="Q31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="R31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="S31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="T31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="U31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="V31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="W31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="X31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.83934156676644</v>
+        <v>35.83934156676619</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="C32" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="D32" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="E32" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="F32" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="G32" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="H32" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="I32" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="T32" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="U32" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="V32" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="W32" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="X32" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="Y32" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="C34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="D34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="E34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="F34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="G34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="H34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="I34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="J34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="K34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="L34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="M34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="N34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="O34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="P34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="R34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="S34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="T34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="U34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="V34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="W34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="X34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
       <c r="Y34" t="n">
-        <v>37.61831212106203</v>
+        <v>37.61831212106181</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="C35" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="D35" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="E35" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="F35" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="G35" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="H35" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="T35" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="U35" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="V35" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="W35" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="X35" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="Y35" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="C37" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="D37" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="E37" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="F37" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="G37" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="H37" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="I37" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="S37" t="n">
-        <v>69.99530231853394</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="T37" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="U37" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="V37" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="W37" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="X37" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853385</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="C38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="D38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="E38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="F38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="G38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="H38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="T38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="U38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="V38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="W38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="X38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="Y38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="C40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="D40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="E40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="F40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="G40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="H40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="I40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="S40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="T40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="U40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="V40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="W40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="X40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.99530231853271</v>
       </c>
     </row>
     <row r="41">
@@ -31847,7 +31847,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N12" t="n">
         <v>609.6478166837925</v>
@@ -31859,7 +31859,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32567,7 +32567,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -32786,13 +32786,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33749,7 +33749,7 @@
         <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970245</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002927</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33892,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34044,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M8" t="n">
-        <v>6.598225711743296</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P9" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,13 +35337,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>286.2109259396475</v>
+        <v>286.2109259396502</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
@@ -35495,7 +35495,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N12" t="n">
         <v>478.3061046004592</v>
@@ -35507,7 +35507,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>286.2109259396475</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35656,7 +35656,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>647.7257603838493</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597686</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165848</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35811,7 +35811,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120762</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861327</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>659.0413498834899</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
@@ -35899,10 +35899,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>419.9422751323999</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -36042,25 +36042,25 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>265.841972029737</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>379.5516846556156</v>
       </c>
       <c r="M19" t="n">
-        <v>407.4276918789016</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>362.1474427080575</v>
+        <v>349.2942852026894</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3353935179387</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,16 +36127,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>626.7790897197935</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>955.3905400235072</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>508.9084834567897</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36215,7 +36215,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>92.51957159311591</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
@@ -36285,16 +36285,16 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>394.5745343735288</v>
+        <v>407.4276918789013</v>
       </c>
       <c r="N22" t="n">
-        <v>404.6512586529578</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>362.1474427080575</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>294.7513836305279</v>
       </c>
       <c r="Q22" t="n">
         <v>78.39423853789366</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36364,13 +36364,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>911.0608116444006</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>712.7379651364181</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597737</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36519,22 +36519,22 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>379.5516846556158</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>407.4276918789013</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>404.6512586529576</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>294.7513836305282</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3353935179385</v>
+        <v>125.3353935179431</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,22 +36601,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>981.6738642148523</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>863.2086515771895</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.41775817983266</v>
+        <v>81.41775817983242</v>
       </c>
       <c r="K28" t="n">
-        <v>241.887001111086</v>
+        <v>241.8870011110858</v>
       </c>
       <c r="L28" t="n">
-        <v>355.5967137369645</v>
+        <v>355.5967137369643</v>
       </c>
       <c r="M28" t="n">
-        <v>383.4727209602503</v>
+        <v>383.4727209602501</v>
       </c>
       <c r="N28" t="n">
-        <v>380.6962877343065</v>
+        <v>380.6962877343063</v>
       </c>
       <c r="O28" t="n">
-        <v>338.1924717894062</v>
+        <v>338.192471789406</v>
       </c>
       <c r="P28" t="n">
-        <v>270.7964127118769</v>
+        <v>270.7964127118767</v>
       </c>
       <c r="Q28" t="n">
-        <v>114.2335801046601</v>
+        <v>114.2335801046599</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36841,16 +36841,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>582.4743173365824</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>321.9165486493473</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.41775817983266</v>
+        <v>81.41775817983242</v>
       </c>
       <c r="K31" t="n">
-        <v>241.887001111086</v>
+        <v>241.8870011110858</v>
       </c>
       <c r="L31" t="n">
-        <v>355.5967137369645</v>
+        <v>355.5967137369643</v>
       </c>
       <c r="M31" t="n">
-        <v>383.4727209602503</v>
+        <v>383.4727209602501</v>
       </c>
       <c r="N31" t="n">
-        <v>380.6962877343065</v>
+        <v>380.6962877343063</v>
       </c>
       <c r="O31" t="n">
-        <v>338.1924717894062</v>
+        <v>338.192471789406</v>
       </c>
       <c r="P31" t="n">
-        <v>270.7964127118769</v>
+        <v>270.7964127118767</v>
       </c>
       <c r="Q31" t="n">
-        <v>114.2335801046601</v>
+        <v>114.2335801046599</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37078,19 +37078,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>410.2384019529684</v>
+        <v>285.6285345310678</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609566</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>83.19672873412824</v>
+        <v>83.19672873412804</v>
       </c>
       <c r="K34" t="n">
-        <v>243.6659716653816</v>
+        <v>243.6659716653814</v>
       </c>
       <c r="L34" t="n">
-        <v>357.3756842912601</v>
+        <v>357.37568429126</v>
       </c>
       <c r="M34" t="n">
-        <v>385.2516915145459</v>
+        <v>385.2516915145457</v>
       </c>
       <c r="N34" t="n">
-        <v>382.4752582886021</v>
+        <v>382.4752582886019</v>
       </c>
       <c r="O34" t="n">
-        <v>339.9714423437018</v>
+        <v>339.9714423437016</v>
       </c>
       <c r="P34" t="n">
-        <v>272.5753832661725</v>
+        <v>272.5753832661723</v>
       </c>
       <c r="Q34" t="n">
-        <v>116.0125506589557</v>
+        <v>116.0125506589555</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>610.2984567882895</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37324,10 +37324,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>73.72434623947342</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>610.2984567882879</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.5183501614648</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
